--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" state="visible" r:id="rId3"/>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">USD</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-01-14T18:30:00.000Z</t>
+    <t xml:space="preserve">2022-01-15T18:30:00.000Z</t>
   </si>
   <si>
     <t xml:space="preserve">INVOICE</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">DISCOUNT</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-01-14T18:30:00.000Z</t>
+    <t xml:space="preserve">2023-01-15T18:30:00.000Z</t>
   </si>
   <si>
     <t xml:space="preserve">FFFF-AAAA</t>
@@ -817,7 +817,7 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +826,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4300,8 +4300,8 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="114">
   <si>
     <t xml:space="preserve">Steps</t>
   </si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">source ASC</t>
   </si>
   <si>
+    <t xml:space="preserve">effectiveDate ASC</t>
+  </si>
+  <si>
     <t xml:space="preserve">instrumentId</t>
   </si>
   <si>
@@ -109,78 +112,72 @@
     <t xml:space="preserve">originalPeriodId</t>
   </si>
   <si>
-    <t xml:space="preserve">instrumentAttributeVersionId</t>
-  </si>
-  <si>
     <t xml:space="preserve">accountingPeriod.periodId</t>
   </si>
   <si>
+    <t xml:space="preserve">isReplayable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNBILLED CHARGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVENUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW BILLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttributeLevelLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metricName ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance.beginningBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance.activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance.endingBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFERRED REVENUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNBILLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstrumentLevelLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetricLevelLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstrumentAttribute</t>
+  </si>
+  <si>
     <t xml:space="preserve">effectiveDate</t>
   </si>
   <si>
-    <t xml:space="preserve">isReplayable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNBILLED CHARGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVENUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW BILLING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVERSAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttributeLevelLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metricName ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance.beginningBalance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance.activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balance.endingBalance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFERRED REVENUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNBILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILLING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstrumentLevelLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetricLevelLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstrumentAttribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">versionId ASC</t>
-  </si>
-  <si>
     <t xml:space="preserve">batchId</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">2022-01-15T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-30T00:00:00.000Z</t>
   </si>
   <si>
     <t xml:space="preserve">USD</t>
@@ -818,7 +818,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,18 +988,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="F7 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,7 +1007,7 @@
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -1042,9 +1040,6 @@
       <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
@@ -1054,31 +1049,28 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <f aca="false">-(SUM(F4:F6)+0.0001)</f>
+      <c r="E3" s="6" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <f aca="false">-(SUM(G4:G6)+0.0001)</f>
         <v>342.818</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="H3" s="6" t="n">
         <v>202201</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>1</v>
       </c>
       <c r="I3" s="6" t="n">
         <v>202201</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="K3" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1090,31 +1082,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="n">
         <f aca="false">Calc!C22</f>
         <v>-47.593</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="H4" s="6" t="n">
         <v>202201</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>3</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>202201</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="K4" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,31 +1115,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <f aca="false">-ROUND(Calc!F15,4)</f>
         <v>-271.4286</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="H5" s="6" t="n">
         <v>202201</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>4</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>202201</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="K5" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1162,31 +1148,28 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <f aca="false">Calc!C40</f>
         <v>-23.7965</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="H6" s="6" t="n">
         <v>202201</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>5</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>202201</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="K6" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,31 +1181,28 @@
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="E7" s="6" t="n">
+        <v>20220228</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <f aca="false">Calc!R3</f>
         <v>1900</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="H7" s="6" t="n">
         <v>202202</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>202202</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="K7" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1234,31 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <f aca="false">-F3</f>
+      <c r="E8" s="6" t="n">
+        <v>20220228</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">-G3</f>
         <v>-342.818</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="H8" s="6" t="n">
         <v>202202</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>1</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>202202</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="K8" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1270,31 +1247,28 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>20220228</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <f aca="false">Calc!C23+0.0001</f>
         <v>-83.2876</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="H9" s="6" t="n">
         <v>202202</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>3</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>202202</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="K9" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,31 +1280,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>20220228</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="n">
         <f aca="false">Calc!C41</f>
         <v>-41.6438</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="H10" s="6" t="n">
         <v>202202</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>5</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>202202</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="K10" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1342,31 +1313,28 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>20220331</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="n">
         <f aca="false">Calc!C24</f>
         <v>-92.2114</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="H11" s="6" t="n">
         <v>202203</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>3</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>202203</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20220331</v>
-      </c>
-      <c r="K11" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,31 +1346,28 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>20220331</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="n">
         <f aca="false">Calc!C42</f>
         <v>-46.1057</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="H12" s="6" t="n">
         <v>202203</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>5</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>202203</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>20220331</v>
-      </c>
-      <c r="K12" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1414,31 +1379,28 @@
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <f aca="false">F3</f>
-        <v>342.818</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>202202</v>
+        <v>36</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <f aca="false">-G3</f>
+        <v>-342.818</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1</v>
+        <v>202201</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>202202</v>
+        <v>202201</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="K13" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1450,31 +1412,28 @@
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="7" t="n">
-        <f aca="false">-F3</f>
-        <v>-342.818</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>202201</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>20220228</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <f aca="false">G3</f>
+        <v>342.818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1</v>
+        <v>202202</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>202201</v>
+        <v>202202</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="K14" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1486,31 +1445,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>20220430</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="7" t="n">
         <f aca="false">SUM(Calc!C78:C81)-0.0001</f>
         <v>-319.6347</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="H15" s="6" t="n">
         <v>202204</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>8</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>202204</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="K15" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1522,31 +1478,28 @@
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <f aca="false">-F9</f>
-        <v>83.2876</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>202202</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">-G4</f>
+        <v>47.593</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>3</v>
+        <v>202201</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>202202</v>
+        <v>202201</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="K16" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,31 +1511,28 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <f aca="false">-F11</f>
-        <v>92.2114</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>202203</v>
+        <v>36</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>20220228</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">-G9</f>
+        <v>83.2876</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3</v>
+        <v>202202</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>202203</v>
+        <v>202202</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>20220331</v>
-      </c>
-      <c r="K17" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,31 +1544,28 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <f aca="false">-F4</f>
-        <v>47.593</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>202201</v>
+        <v>36</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>20220331</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <f aca="false">-G11</f>
+        <v>92.2114</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3</v>
+        <v>202203</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>202201</v>
+        <v>202203</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="K18" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1630,31 +1577,28 @@
         <v>3</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>20220430</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="n">
         <f aca="false">-Calc!F71</f>
         <v>-277.777777777778</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="H19" s="6" t="n">
         <v>202204</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>9</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>202204</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="K19" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,31 +1610,28 @@
         <v>3</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <f aca="false">-F5</f>
+        <v>36</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">-G5</f>
         <v>271.4286</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="H20" s="6" t="n">
         <v>202201</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>4</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>202201</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="K20" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1702,31 +1643,28 @@
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>20220430</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="7" t="n">
         <f aca="false">SUM(Calc!C96:C99)-0.0001</f>
         <v>-319.6347</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="H21" s="6" t="n">
         <v>202204</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>10</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>202204</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="K21" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1738,31 +1676,28 @@
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <f aca="false">-F6</f>
+        <v>36</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <f aca="false">-G6</f>
         <v>23.7965</v>
       </c>
-      <c r="G22" s="6" t="n">
+      <c r="H22" s="6" t="n">
         <v>202201</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>5</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>202201</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="K22" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1774,31 +1709,28 @@
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <f aca="false">-F12</f>
-        <v>46.1057</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>202203</v>
+        <v>36</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>20220228</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <f aca="false">-G10</f>
+        <v>41.6438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5</v>
+        <v>202202</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>202203</v>
+        <v>202202</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20220331</v>
-      </c>
-      <c r="K23" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1810,31 +1742,28 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <f aca="false">-F10</f>
-        <v>41.6438</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>202202</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>20220331</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <f aca="false">-G12</f>
+        <v>46.1057</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>5</v>
+        <v>202203</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>202202</v>
+        <v>202203</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="K24" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1846,31 +1775,28 @@
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="8" t="n">
+      <c r="E25" s="6" t="n">
+        <v>20220531</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="8" t="n">
         <f aca="false">Calc!R4</f>
         <v>600</v>
       </c>
-      <c r="G25" s="6" t="n">
+      <c r="H25" s="6" t="n">
         <v>202205</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <v>6</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>202205</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>20220531</v>
-      </c>
-      <c r="K25" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1882,31 +1808,28 @@
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>20220531</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="7" t="n">
         <f aca="false">Calc!C82</f>
         <v>-94.3683</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="H26" s="6" t="n">
         <v>202205</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>8</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>202205</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>20220531</v>
-      </c>
-      <c r="K26" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,31 +1841,28 @@
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>20220531</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="7" t="n">
         <f aca="false">Calc!C98</f>
         <v>-94.3683</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="H27" s="6" t="n">
         <v>202205</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>10</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>202205</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20220531</v>
-      </c>
-      <c r="K27" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,7 +2274,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="F7 F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2370,7 +2290,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -2384,19 +2304,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2407,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="9" t="n">
-        <f aca="false">O_TransactionActivity!F3</f>
+        <f aca="false">O_TransactionActivity!G3</f>
         <v>342.818</v>
       </c>
       <c r="G3" s="1" t="n">
@@ -2432,16 +2352,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="9" t="n">
-        <f aca="false">O_TransactionActivity!F3</f>
+        <f aca="false">O_TransactionActivity!G3</f>
         <v>342.818</v>
       </c>
       <c r="G4" s="1" t="n">
@@ -2457,16 +2377,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="n">
-        <f aca="false">O_TransactionActivity!F4</f>
+        <f aca="false">O_TransactionActivity!G4</f>
         <v>-47.593</v>
       </c>
       <c r="G5" s="1" t="n">
@@ -2482,10 +2402,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -2506,16 +2426,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="9" t="n">
-        <f aca="false">O_TransactionActivity!F5</f>
+        <f aca="false">O_TransactionActivity!G5</f>
         <v>-271.4286</v>
       </c>
       <c r="G7" s="1" t="n">
@@ -2531,10 +2451,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
@@ -2556,16 +2476,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="9" t="n">
-        <f aca="false">O_TransactionActivity!F6</f>
+        <f aca="false">O_TransactionActivity!G6</f>
         <v>-23.7965</v>
       </c>
       <c r="G9" s="1" t="n">
@@ -2581,10 +2501,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
@@ -2606,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="9" t="n">
-        <f aca="false">O_TransactionActivity!F7</f>
+        <f aca="false">O_TransactionActivity!G7</f>
         <v>1900</v>
       </c>
       <c r="G11" s="1" t="n">
@@ -2631,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>342.818</v>
@@ -2655,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>342.818</v>
@@ -2679,10 +2599,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>-47.593</v>
@@ -2703,10 +2623,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>-47.593</v>
@@ -2727,10 +2647,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>-271.4286</v>
@@ -2751,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>-271.4286</v>
@@ -2775,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>-23.7965</v>
@@ -2799,10 +2719,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>-23.7965</v>
@@ -2823,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>1900</v>
@@ -2847,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>1900</v>
@@ -2871,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>0</v>
@@ -2895,10 +2815,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>-130.8806</v>
@@ -2919,10 +2839,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>-130.8806</v>
@@ -2943,10 +2863,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>-271.4286</v>
@@ -2967,10 +2887,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>-271.4286</v>
@@ -2991,10 +2911,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>-65.4403</v>
@@ -3015,10 +2935,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>-65.4403</v>
@@ -3039,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>1900</v>
@@ -3063,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1900</v>
@@ -3087,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>0</v>
@@ -3111,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>-223.092</v>
@@ -3135,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>-223.092</v>
@@ -3159,10 +3079,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>-271.4286</v>
@@ -3183,10 +3103,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>-271.4286</v>
@@ -3207,10 +3127,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>-111.546</v>
@@ -3231,10 +3151,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>-111.546</v>
@@ -3255,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>1900</v>
@@ -3279,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>1900</v>
@@ -3303,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>0</v>
@@ -3327,10 +3247,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>-319.6347</v>
@@ -3351,10 +3271,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>-319.6347</v>
@@ -3375,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>-277.7778</v>
@@ -3399,10 +3319,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>-277.7778</v>
@@ -3423,10 +3343,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>-319.6347</v>
@@ -3447,10 +3367,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>-319.6347</v>
@@ -3482,7 +3402,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3496,7 +3416,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -3507,19 +3427,19 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,10 +3447,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>-0.0001</v>
@@ -3547,10 +3467,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>-342.8181</v>
@@ -3567,10 +3487,10 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>342.818</v>
@@ -3587,10 +3507,10 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1900</v>
@@ -3607,10 +3527,10 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1432.2506</v>
@@ -3627,10 +3547,10 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>-124.9314</v>
@@ -3647,10 +3567,10 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>-342.818</v>
@@ -3667,10 +3587,10 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
@@ -3687,10 +3607,10 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>-138.3171</v>
@@ -3707,10 +3627,10 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>-138.3171</v>
@@ -3727,10 +3647,10 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0</v>
@@ -3747,10 +3667,10 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
@@ -3767,10 +3687,10 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>-310.9806</v>
@@ -3787,10 +3707,10 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>-310.9806</v>
@@ -3807,10 +3727,10 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -3827,10 +3747,10 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>600</v>
@@ -3847,10 +3767,10 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>411.2634</v>
@@ -3867,10 +3787,10 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>-188.7366</v>
@@ -3887,10 +3807,10 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
@@ -3921,7 +3841,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3936,10 +3856,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,16 +3867,16 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,7 +3884,7 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -3981,7 +3901,7 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -3998,7 +3918,7 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
@@ -4015,7 +3935,7 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -4032,7 +3952,7 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-0.0001</v>
@@ -4049,7 +3969,7 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-342.8181</v>
@@ -4066,7 +3986,7 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>342.818</v>
@@ -4083,7 +4003,7 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1900</v>
@@ -4100,7 +4020,7 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1432.2505</v>
@@ -4117,7 +4037,7 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-467.7495</v>
@@ -4134,7 +4054,7 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0</v>
@@ -4151,7 +4071,7 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1900</v>
@@ -4168,7 +4088,7 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1293.9334</v>
@@ -4185,7 +4105,7 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>-606.0666</v>
@@ -4202,7 +4122,7 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0</v>
@@ -4219,7 +4139,7 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>1900</v>
@@ -4236,7 +4156,7 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>982.9528</v>
@@ -4253,7 +4173,7 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>-917.0472</v>
@@ -4270,7 +4190,7 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0</v>
@@ -4298,41 +4218,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="30.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -4342,13 +4260,13 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>51</v>
@@ -4391,9 +4309,6 @@
       </c>
       <c r="S2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4403,43 +4318,40 @@
       <c r="B3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>66</v>
+      <c r="G3" s="1" t="n">
+        <v>202201</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="R3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4450,58 +4362,55 @@
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>2</v>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>66</v>
+      <c r="G4" s="1" t="n">
+        <v>202201</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>-200</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>-200</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="R4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="1" t="n">
-        <v>-200</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4512,58 +4421,55 @@
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>3</v>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>66</v>
+      <c r="G5" s="1" t="n">
+        <v>202201</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="M5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="1" t="n">
+      <c r="R5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4574,58 +4480,55 @@
       <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>4</v>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
+      <c r="G6" s="1" t="n">
+        <v>202201</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>300</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6" s="1" t="n">
+      <c r="R6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4636,58 +4539,55 @@
       <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4698,40 +4598,37 @@
       <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>6</v>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="G8" s="1" t="n">
+        <v>202201</v>
+      </c>
       <c r="H8" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="R8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4742,55 +4639,52 @@
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>7</v>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="G9" s="1" t="n">
+        <v>202201</v>
+      </c>
       <c r="H9" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I9" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="K9" s="1" t="n">
         <v>-200</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>-200</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="R9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="1" t="n">
-        <v>-200</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4801,55 +4695,52 @@
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>8</v>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="G10" s="1" t="n">
+        <v>202201</v>
+      </c>
       <c r="H10" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I10" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="K10" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="M10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" s="1" t="n">
+      <c r="R10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4860,55 +4751,52 @@
       <c r="B11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>9</v>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="G11" s="1" t="n">
+        <v>202201</v>
+      </c>
       <c r="H11" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I11" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>300</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="1" t="n">
+      <c r="R11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4919,55 +4807,52 @@
       <c r="B12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>10</v>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="G12" s="1" t="n">
+        <v>202201</v>
+      </c>
       <c r="H12" s="1" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I12" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="M12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S12" s="1" t="n">
+      <c r="R12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4990,7 +4875,7 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="F7 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5087,7 +4972,7 @@
         <v>44620</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="16" t="n">
         <v>1900</v>
@@ -5121,7 +5006,7 @@
         <v>44712</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="16" t="n">
         <v>600</v>

--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="113">
   <si>
     <t xml:space="preserve">Steps</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t xml:space="preserve">periodId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">previousVersionId</t>
   </si>
   <si>
     <t xml:space="preserve">source</t>
@@ -818,7 +815,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -991,7 +988,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="F7 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2274,7 +2271,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="F7 F17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3402,7 +3399,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3841,7 +3838,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4218,10 +4215,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4231,17 +4228,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="30.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,9 +4303,6 @@
       <c r="R2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -4319,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>32</v>
@@ -4328,31 +4321,28 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>69</v>
+      <c r="Q3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>32</v>
@@ -4372,46 +4362,43 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>-200</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="L4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="n">
         <v>-200</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="O4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="1" t="n">
-        <v>-200</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4422,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -4431,46 +4418,43 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>100</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>1200</v>
-      </c>
       <c r="P5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
@@ -4490,46 +4474,43 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="L6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>300</v>
+      <c r="O6" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
@@ -4549,46 +4530,43 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>0</v>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="1" t="n">
-        <v>50</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O7" s="1" t="n">
         <v>600</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="P7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
@@ -4610,26 +4588,23 @@
       <c r="G8" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>1</v>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>69</v>
+      <c r="Q8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
@@ -4651,41 +4626,38 @@
       <c r="G9" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>2</v>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>-200</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="L9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="n">
         <v>-200</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="1" t="n">
-        <v>-200</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
@@ -4707,41 +4679,38 @@
       <c r="G10" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>3</v>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="1" t="n">
-        <v>100</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>1200</v>
-      </c>
       <c r="P10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4721,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -4763,41 +4732,38 @@
       <c r="G11" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>4</v>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="L11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>300</v>
+      <c r="O11" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
@@ -4819,41 +4785,38 @@
       <c r="G12" s="1" t="n">
         <v>202201</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4875,7 +4838,7 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="F7 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4897,7 +4860,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4906,40 +4869,40 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="R2" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,20 +4910,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N3" s="14" t="n">
         <v>0</v>
@@ -4983,18 +4946,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E4" s="6"/>
       <c r="L4" s="12"/>
       <c r="M4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N4" s="14" t="n">
         <v>0</v>
@@ -5017,13 +4980,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -5032,13 +4995,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -5047,13 +5010,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -5062,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -5070,7 +5033,7 @@
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -5082,28 +5045,28 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="C12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,7 +5201,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="20" t="n">
@@ -5262,20 +5225,20 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,20 +5423,20 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="D39" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5658,7 +5621,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -5678,7 +5641,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5687,19 +5650,19 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="E58" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,13 +5670,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>0</v>
@@ -5724,13 +5687,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E60" s="6"/>
     </row>
@@ -5739,13 +5702,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E61" s="6"/>
     </row>
@@ -5754,13 +5717,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" s="6"/>
     </row>
@@ -5769,13 +5732,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E63" s="6"/>
     </row>
@@ -5784,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -5792,7 +5755,7 @@
     </row>
     <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -5804,28 +5767,28 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="C68" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="E68" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="G68" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,7 +5923,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="20" t="n">
@@ -5984,20 +5947,20 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="D77" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6182,20 +6145,20 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="D95" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" state="visible" r:id="rId3"/>
@@ -16,6 +16,9 @@
     <sheet name="O_InstrumentAttribute" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="Calc" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">O_TransactionActivity!$A$2:$J$18</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="114">
   <si>
     <t xml:space="preserve">Steps</t>
   </si>
@@ -46,18 +49,24 @@
     <t xml:space="preserve">ReferenceData/Revenue_RefData.xlsx</t>
   </si>
   <si>
+    <t xml:space="preserve">EVENT_CONFIGURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestRevenue/EventConfigurations.json</t>
+  </si>
+  <si>
     <t xml:space="preserve">MODEL_UPLOAD</t>
   </si>
   <si>
-    <t xml:space="preserve">Model/Revenue_Model.xlsx</t>
+    <t xml:space="preserve">Model/Revenue_model_changed_V4.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">MODEL_CONFIGURATION</t>
   </si>
   <si>
-    <t xml:space="preserve">CONFIGURATION</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATTRIBUTE</t>
   </si>
   <si>
@@ -118,7 +127,7 @@
     <t xml:space="preserve">isReplayable</t>
   </si>
   <si>
-    <t xml:space="preserve">UNBILLED CHARGE</t>
+    <t xml:space="preserve">UNBILLED_CHARGE</t>
   </si>
   <si>
     <t xml:space="preserve">MODEL</t>
@@ -130,15 +139,12 @@
     <t xml:space="preserve">REVENUE</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW BILLING</t>
+    <t xml:space="preserve">NEW_BILLING</t>
   </si>
   <si>
     <t xml:space="preserve">ETL</t>
   </si>
   <si>
-    <t xml:space="preserve">REVERSAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">AttributeLevelLtd</t>
   </si>
   <si>
@@ -154,7 +160,7 @@
     <t xml:space="preserve">balance.endingBalance</t>
   </si>
   <si>
-    <t xml:space="preserve">DEFERRED REVENUE</t>
+    <t xml:space="preserve">DEFERRED_REVENUE</t>
   </si>
   <si>
     <t xml:space="preserve">UNBILLED</t>
@@ -380,7 +386,7 @@
     <numFmt numFmtId="169" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="170" formatCode="#,##0.00_);[RED]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -406,6 +412,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC77DBB"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -527,12 +541,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -548,7 +566,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,19 +586,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -596,7 +614,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,7 +622,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,11 +630,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,7 +642,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -638,6 +656,31 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -678,7 +721,7 @@
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFF19F9E"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFC77DBB"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -699,6 +742,10 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,17 +859,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.18"/>
   </cols>
   <sheetData>
@@ -849,22 +896,22 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -875,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -886,21 +933,21 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44592</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>44592</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -908,32 +955,32 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44620</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44651</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>44620</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>44651</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -941,21 +988,21 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44681</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>44681</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -963,12 +1010,24 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>44712</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -987,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,871 +1057,580 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>20220131</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="n">
+      <c r="B3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>20220131</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="n">
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="8" t="n">
         <f aca="false">-(SUM(G4:G6)+0.0001)</f>
         <v>342.818</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="7" t="n">
         <v>202201</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>202201</v>
       </c>
-      <c r="J3" s="6" t="n">
-        <v>1</v>
+      <c r="J3" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>20220131</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <v>20220131</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="n">
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8" t="n">
         <f aca="false">Calc!C22</f>
         <v>-47.593</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>202201</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <v>202201</v>
       </c>
-      <c r="J4" s="6" t="n">
-        <v>1</v>
+      <c r="J4" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="7" t="n">
         <v>20220131</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>20220131</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="8" t="n">
         <f aca="false">-ROUND(Calc!F15,4)</f>
         <v>-271.4286</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>202201</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>202201</v>
       </c>
-      <c r="J5" s="6" t="n">
-        <v>1</v>
+      <c r="J5" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="7" t="n">
         <v>20220131</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="7" t="n">
         <v>20220131</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="n">
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8" t="n">
         <f aca="false">Calc!C40</f>
         <v>-23.7965</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="7" t="n">
         <v>202201</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="7" t="n">
         <v>202201</v>
       </c>
-      <c r="J6" s="6" t="n">
-        <v>1</v>
+      <c r="J6" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="7" t="n">
         <v>20220228</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6" t="n">
+      <c r="B7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="n">
         <v>20220228</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="n">
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="n">
         <f aca="false">Calc!R3</f>
         <v>1900</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <v>202202</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <v>202202</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="7" t="n">
         <v>20220228</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="B8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>20220228</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="n">
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="n">
         <f aca="false">-G3</f>
         <v>-342.818</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="7" t="n">
         <v>202202</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>202202</v>
       </c>
-      <c r="J8" s="6" t="n">
-        <v>1</v>
+      <c r="J8" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="7" t="n">
         <v>20220228</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>20220228</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8" t="n">
         <f aca="false">Calc!C23+0.0001</f>
         <v>-83.2876</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>202202</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <v>202202</v>
       </c>
-      <c r="J9" s="6" t="n">
-        <v>1</v>
+      <c r="J9" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="7" t="n">
         <v>20220228</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="7" t="n">
         <v>20220228</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="n">
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8" t="n">
         <f aca="false">Calc!C41</f>
         <v>-41.6438</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="7" t="n">
         <v>202202</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="7" t="n">
         <v>202202</v>
       </c>
-      <c r="J10" s="6" t="n">
-        <v>1</v>
+      <c r="J10" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="7" t="n">
         <v>20220331</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="7" t="n">
         <v>20220331</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7" t="n">
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8" t="n">
         <f aca="false">Calc!C24</f>
         <v>-92.2114</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="7" t="n">
         <v>202203</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="7" t="n">
         <v>202203</v>
       </c>
-      <c r="J11" s="6" t="n">
-        <v>1</v>
+      <c r="J11" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="7" t="n">
         <v>20220331</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="7" t="n">
         <v>20220331</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="7" t="n">
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="8" t="n">
         <f aca="false">Calc!C42</f>
         <v>-46.1057</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="7" t="n">
         <v>202203</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="7" t="n">
         <v>202203</v>
       </c>
-      <c r="J12" s="6" t="n">
-        <v>1</v>
+      <c r="J12" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="7" t="n">
         <v>20220430</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>20220430</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>-96.5427</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>202204</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>202204</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
+        <v>20220430</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>20220430</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>-6.3492</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>202204</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>202204</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <v>20220430</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>20220430</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>-208.0887</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>202204</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>202204</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>20220531</v>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <f aca="false">-G3</f>
-        <v>-342.818</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>202201</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <f aca="false">G3</f>
-        <v>342.818</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>202202</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>202202</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <f aca="false">SUM(Calc!C78:C81)-0.0001</f>
-        <v>-319.6347</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>202204</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>202204</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <f aca="false">-G4</f>
-        <v>47.593</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>202201</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <f aca="false">-G9</f>
-        <v>83.2876</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>202202</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>202202</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>20220331</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <f aca="false">-G11</f>
-        <v>92.2114</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>202203</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>202203</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <f aca="false">-Calc!F71</f>
-        <v>-277.777777777778</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>202204</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>202204</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <f aca="false">-G5</f>
-        <v>271.4286</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>202201</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <f aca="false">SUM(Calc!C96:C99)-0.0001</f>
-        <v>-319.6347</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>202204</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>202204</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>20220131</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <f aca="false">-G6</f>
-        <v>23.7965</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>202201</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>202201</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>20220228</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <f aca="false">-G10</f>
-        <v>41.6438</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>202202</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>202202</v>
-      </c>
-      <c r="J23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>20220430</v>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>20220331</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <f aca="false">-G12</f>
-        <v>46.1057</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <v>202203</v>
-      </c>
-      <c r="I24" s="6" t="n">
-        <v>202203</v>
-      </c>
-      <c r="J24" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="n">
         <v>20220531</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>20220531</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="8" t="n">
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="9" t="n">
         <f aca="false">Calc!R4</f>
         <v>600</v>
       </c>
-      <c r="H25" s="6" t="n">
+      <c r="H16" s="7" t="n">
         <v>202205</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I16" s="7" t="n">
         <v>202205</v>
       </c>
-      <c r="J25" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="J16" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
         <v>20220531</v>
       </c>
-      <c r="B26" s="6" t="n">
+      <c r="B17" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <v>20220531</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="n">
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="8" t="n">
         <f aca="false">Calc!C82</f>
         <v>-94.3683</v>
       </c>
-      <c r="H26" s="6" t="n">
+      <c r="H17" s="7" t="n">
         <v>202205</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I17" s="7" t="n">
         <v>202205</v>
       </c>
-      <c r="J26" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+      <c r="J17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
         <v>20220531</v>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B18" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <v>20220531</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="7" t="n">
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8" t="n">
         <f aca="false">Calc!C98</f>
         <v>-94.3683</v>
       </c>
-      <c r="H27" s="6" t="n">
+      <c r="H18" s="7" t="n">
         <v>202205</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I18" s="7" t="n">
         <v>202205</v>
       </c>
-      <c r="J27" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="J18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2253,6 +2021,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A2:J18"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2260,6 +2029,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2270,8 +2040,8 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2286,34 +2056,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2324,15 +2094,15 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="10" t="n">
         <f aca="false">O_TransactionActivity!G3</f>
         <v>342.818</v>
       </c>
@@ -2349,15 +2119,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="10" t="n">
         <f aca="false">O_TransactionActivity!G3</f>
         <v>342.818</v>
       </c>
@@ -2374,15 +2144,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="10" t="n">
         <f aca="false">O_TransactionActivity!G4</f>
         <v>-47.593</v>
       </c>
@@ -2399,10 +2169,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -2423,15 +2193,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="10" t="n">
         <f aca="false">O_TransactionActivity!G5</f>
         <v>-271.4286</v>
       </c>
@@ -2448,15 +2218,15 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="10" t="n">
         <f aca="false">F7</f>
         <v>-271.4286</v>
       </c>
@@ -2473,15 +2243,15 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="10" t="n">
         <f aca="false">O_TransactionActivity!G6</f>
         <v>-23.7965</v>
       </c>
@@ -2498,15 +2268,15 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="10" t="n">
         <f aca="false">F9</f>
         <v>-23.7965</v>
       </c>
@@ -2523,15 +2293,15 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="10" t="n">
         <f aca="false">O_TransactionActivity!G7</f>
         <v>1900</v>
       </c>
@@ -2548,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>342.818</v>
@@ -2572,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>342.818</v>
@@ -2596,10 +2366,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>-47.593</v>
@@ -2620,10 +2390,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>-47.593</v>
@@ -2644,10 +2414,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>-271.4286</v>
@@ -2668,10 +2438,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>-271.4286</v>
@@ -2692,10 +2462,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>-23.7965</v>
@@ -2716,10 +2486,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>-23.7965</v>
@@ -2740,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>1900</v>
@@ -2764,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>1900</v>
@@ -2788,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>0</v>
@@ -2812,10 +2582,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>-130.8806</v>
@@ -2836,10 +2606,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>-130.8806</v>
@@ -2860,10 +2630,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>-271.4286</v>
@@ -2884,10 +2654,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>-271.4286</v>
@@ -2908,10 +2678,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>-65.4403</v>
@@ -2932,10 +2702,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>-65.4403</v>
@@ -2956,10 +2726,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>1900</v>
@@ -2980,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1900</v>
@@ -3004,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>0</v>
@@ -3028,10 +2798,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>-223.092</v>
@@ -3052,10 +2822,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>-223.092</v>
@@ -3076,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>-271.4286</v>
@@ -3100,10 +2870,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>-271.4286</v>
@@ -3124,10 +2894,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>-111.546</v>
@@ -3148,10 +2918,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>-111.546</v>
@@ -3172,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>1900</v>
@@ -3196,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>1900</v>
@@ -3220,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>0</v>
@@ -3244,10 +3014,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>-319.6347</v>
@@ -3268,10 +3038,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>-319.6347</v>
@@ -3292,10 +3062,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>-277.7778</v>
@@ -3316,10 +3086,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>-277.7778</v>
@@ -3340,10 +3110,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>-319.6347</v>
@@ -3364,10 +3134,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>-319.6347</v>
@@ -3399,7 +3169,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3412,31 +3182,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,10 +3214,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>-0.0001</v>
@@ -3464,10 +3234,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>-342.8181</v>
@@ -3484,10 +3254,10 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>342.818</v>
@@ -3504,10 +3274,10 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1900</v>
@@ -3524,10 +3294,10 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1432.2506</v>
@@ -3544,10 +3314,10 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>-124.9314</v>
@@ -3564,10 +3334,10 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>-342.818</v>
@@ -3584,10 +3354,10 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
@@ -3604,10 +3374,10 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>-138.3171</v>
@@ -3624,10 +3394,10 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>-138.3171</v>
@@ -3644,10 +3414,10 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0</v>
@@ -3664,10 +3434,10 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
@@ -3684,10 +3454,10 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>-310.9806</v>
@@ -3704,10 +3474,10 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>-310.9806</v>
@@ -3724,10 +3494,10 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -3744,10 +3514,10 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>600</v>
@@ -3764,10 +3534,10 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>411.2634</v>
@@ -3784,10 +3554,10 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>-188.7366</v>
@@ -3804,10 +3574,10 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
@@ -3838,7 +3608,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3852,28 +3622,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,7 +3651,7 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -3898,7 +3668,7 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -3915,7 +3685,7 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
@@ -3932,7 +3702,7 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -3949,7 +3719,7 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-0.0001</v>
@@ -3966,7 +3736,7 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-342.8181</v>
@@ -3983,7 +3753,7 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>342.818</v>
@@ -4000,7 +3770,7 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1900</v>
@@ -4017,7 +3787,7 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1432.2505</v>
@@ -4034,7 +3804,7 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-467.7495</v>
@@ -4051,7 +3821,7 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0</v>
@@ -4068,7 +3838,7 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1900</v>
@@ -4085,7 +3855,7 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1293.9334</v>
@@ -4102,7 +3872,7 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>-606.0666</v>
@@ -4119,7 +3889,7 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0</v>
@@ -4136,7 +3906,7 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>1900</v>
@@ -4153,7 +3923,7 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>982.9528</v>
@@ -4170,7 +3940,7 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>-917.0472</v>
@@ -4187,7 +3957,7 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0</v>
@@ -4217,7 +3987,7 @@
   </sheetPr>
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -4241,67 +4011,67 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,37 +4082,37 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>202201</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,34 +4123,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>202201</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>-200</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>1</v>
@@ -4389,16 +4159,16 @@
         <v>-200</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,34 +4179,34 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>202201</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>100</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>12</v>
@@ -4445,16 +4215,16 @@
         <v>1200</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,34 +4235,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>202201</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>300</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="n">
         <v>1</v>
@@ -4501,16 +4271,16 @@
         <v>300</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4521,34 +4291,34 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>202201</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>50</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M7" s="1" t="n">
         <v>12</v>
@@ -4557,16 +4327,16 @@
         <v>600</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>3</v>
@@ -4589,22 +4359,22 @@
         <v>202201</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,10 +4385,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>3</v>
@@ -4627,19 +4397,19 @@
         <v>202201</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>-200</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M9" s="1" t="n">
         <v>1</v>
@@ -4648,16 +4418,16 @@
         <v>-200</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,10 +4438,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>3</v>
@@ -4680,19 +4450,19 @@
         <v>202201</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>100</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>12</v>
@@ -4701,16 +4471,16 @@
         <v>1200</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,10 +4491,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>3</v>
@@ -4733,19 +4503,19 @@
         <v>202201</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>300</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="1" t="n">
         <v>1</v>
@@ -4754,16 +4524,16 @@
         <v>300</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4774,10 +4544,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>3</v>
@@ -4786,19 +4556,19 @@
         <v>202201</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>50</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="1" t="n">
         <v>24</v>
@@ -4807,16 +4577,16 @@
         <v>1200</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="1" t="n">
         <v>5</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4837,7 +4607,7 @@
   </sheetPr>
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -4859,1484 +4629,1484 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="13" t="s">
-        <v>83</v>
+      <c r="Q2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="15" t="n">
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16" t="n">
         <v>44620</v>
       </c>
-      <c r="P3" s="15" t="n">
+      <c r="P3" s="16" t="n">
         <v>44620</v>
       </c>
-      <c r="Q3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="16" t="n">
+      <c r="Q3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="17" t="n">
         <v>1900</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="N4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16" t="n">
+        <v>44712</v>
+      </c>
+      <c r="P4" s="16" t="n">
+        <v>44712</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="17" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="15" t="n">
-        <v>44712</v>
-      </c>
-      <c r="P4" s="15" t="n">
-        <v>44712</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="16" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="A11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="12" t="s">
         <v>107</v>
       </c>
+      <c r="H12" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP(A13,A3:$B$7,2,FALSE()),"")</f>
         <v>Discount</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="19" t="n">
         <v>-200</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="19" t="n">
         <f aca="false">IFERROR(IF(VLOOKUP(B13,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C13,VLOOKUP(B13,$B$3:$E$7,4,FALSE())),"")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="18" t="n">
+      <c r="E13" s="19" t="n">
         <f aca="false">IFERROR(D13/$D$18,"")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="19" t="n">
         <f aca="false">IFERROR(E13*$C$18,"")</f>
         <v>0</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="16" t="n">
         <v>44576</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="16" t="n">
         <v>44576</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP(A14,A4:$B$7,2,FALSE()),"")</f>
         <v>SaaS Basic Subscription</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="19" t="n">
         <v>1200</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="19" t="n">
         <f aca="false">IFERROR(IF(VLOOKUP(B14,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C14,VLOOKUP(B14,$B$3:$E$7,4,FALSE())),"")</f>
         <v>1200</v>
       </c>
-      <c r="E14" s="18" t="n">
+      <c r="E14" s="19" t="n">
         <f aca="false">IFERROR(D14/$D$18,"")</f>
         <v>0.571428571428571</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="19" t="n">
         <f aca="false">IFERROR(E14*$C$18,"")</f>
         <v>1085.71428571429</v>
       </c>
-      <c r="G14" s="15" t="n">
+      <c r="G14" s="16" t="n">
         <v>44576</v>
       </c>
-      <c r="H14" s="15" t="n">
+      <c r="H14" s="16" t="n">
         <v>44941</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP(A15,A5:$B$7,2,FALSE()),"")</f>
         <v>SaaS Implementation</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="19" t="n">
         <v>300</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="19" t="n">
         <f aca="false">IFERROR(IF(VLOOKUP(B15,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C15,VLOOKUP(B15,$B$3:$E$7,4,FALSE())),"")</f>
         <v>300</v>
       </c>
-      <c r="E15" s="18" t="n">
+      <c r="E15" s="19" t="n">
         <f aca="false">IFERROR(D15/$D$18,"")</f>
         <v>0.142857142857143</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="19" t="n">
         <f aca="false">IFERROR(E15*$C$18,"")</f>
         <v>271.428571428571</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="16" t="n">
         <v>44576</v>
       </c>
-      <c r="H15" s="15" t="n">
+      <c r="H15" s="16" t="n">
         <v>44576</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP(A16,A6:$B$7,2,FALSE()),"")</f>
         <v>SaaS Premium Subscription</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="19" t="n">
         <v>600</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="19" t="n">
         <f aca="false">IFERROR(IF(VLOOKUP(B16,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C16,VLOOKUP(B16,$B$3:$E$7,4,FALSE())),"")</f>
         <v>600</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="E16" s="19" t="n">
         <f aca="false">IFERROR(D16/$D$18,"")</f>
         <v>0.285714285714286</v>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="19" t="n">
         <f aca="false">IFERROR(E16*$C$18,"")</f>
         <v>542.857142857143</v>
       </c>
-      <c r="G16" s="15" t="n">
+      <c r="G16" s="16" t="n">
         <v>44576</v>
       </c>
-      <c r="H16" s="15" t="n">
+      <c r="H16" s="16" t="n">
         <v>44941</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="n">
+      <c r="A18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="n">
         <f aca="false">SUM(C13:C17)</f>
         <v>1900</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="21" t="n">
         <f aca="false">SUM(D13:D17)</f>
         <v>2100</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E18" s="21" t="n">
         <f aca="false">SUM(E13:E17)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="20" t="n">
+      <c r="F18" s="21" t="n">
         <f aca="false">SUM(F13:F17)</f>
         <v>1900</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>111</v>
       </c>
+      <c r="D21" s="23" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="24" t="n">
         <v>44592</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D22,4)</f>
         <v>-47.593</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="7" t="n">
         <f aca="false">B22-G14</f>
         <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="24" t="n">
         <v>44620</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D23,4)</f>
         <v>-83.2877</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="7" t="n">
         <f aca="false">B23-B22</f>
         <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="24" t="n">
         <v>44651</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D24,4)</f>
         <v>-92.2114</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="7" t="n">
         <f aca="false">B24-B23</f>
         <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="24" t="n">
         <v>44681</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D25,4)</f>
         <v>-89.2368</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="7" t="n">
         <f aca="false">B25-B24</f>
         <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="24" t="n">
         <v>44712</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D26,4)</f>
         <v>-92.2114</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="7" t="n">
         <f aca="false">B26-B25</f>
         <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="24" t="n">
         <v>44742</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D27,4)</f>
         <v>-89.2368</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="7" t="n">
         <f aca="false">B27-B26</f>
         <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="24" t="n">
         <v>44773</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D28,4)</f>
         <v>-92.2114</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="7" t="n">
         <f aca="false">B28-B27</f>
         <v>31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="24" t="n">
         <v>44804</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D29,4)</f>
         <v>-92.2114</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="7" t="n">
         <f aca="false">B29-B28</f>
         <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="24" t="n">
         <v>44834</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D30,4)</f>
         <v>-89.2368</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="7" t="n">
         <f aca="false">B30-B29</f>
         <v>30</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="24" t="n">
         <v>44865</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D31,4)</f>
         <v>-92.2114</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="7" t="n">
         <f aca="false">B31-B30</f>
         <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23" t="n">
+      <c r="B32" s="24" t="n">
         <v>44895</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D32,4)</f>
         <v>-89.2368</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="7" t="n">
         <f aca="false">B32-B31</f>
         <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="23" t="n">
+      <c r="B33" s="24" t="n">
         <v>44926</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D33,4)</f>
         <v>-92.2114</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="7" t="n">
         <f aca="false">B33-B32</f>
         <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="23" t="n">
+      <c r="B34" s="24" t="n">
         <v>44941</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="7" t="n">
         <f aca="false">-ROUND($F$14/$D$35*D34,4)</f>
         <v>-44.6184</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="7" t="n">
         <f aca="false">B34-B33</f>
         <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="n">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="n">
         <f aca="false">SUM(C22:C34)</f>
         <v>-1085.7147</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="7" t="n">
         <f aca="false">SUM(D22:D34)</f>
         <v>365</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="23" t="s">
         <v>111</v>
       </c>
+      <c r="D39" s="23" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="23" t="n">
+      <c r="B40" s="24" t="n">
         <v>44592</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D40,4)</f>
         <v>-23.7965</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="7" t="n">
         <f aca="false">B40-G16</f>
         <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="23" t="n">
+      <c r="B41" s="24" t="n">
         <v>44620</v>
       </c>
-      <c r="C41" s="6" t="n">
+      <c r="C41" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D41,4)</f>
         <v>-41.6438</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="7" t="n">
         <f aca="false">B41-B40</f>
         <v>28</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="23" t="n">
+      <c r="B42" s="24" t="n">
         <v>44651</v>
       </c>
-      <c r="C42" s="6" t="n">
+      <c r="C42" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D42,4)</f>
         <v>-46.1057</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="7" t="n">
         <f aca="false">B42-B41</f>
         <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="23" t="n">
+      <c r="B43" s="24" t="n">
         <v>44681</v>
       </c>
-      <c r="C43" s="6" t="n">
+      <c r="C43" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D43,4)</f>
         <v>-44.6184</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="7" t="n">
         <f aca="false">B43-B42</f>
         <v>30</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="23" t="n">
+      <c r="B44" s="24" t="n">
         <v>44712</v>
       </c>
-      <c r="C44" s="6" t="n">
+      <c r="C44" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D44,4)</f>
         <v>-46.1057</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="7" t="n">
         <f aca="false">B44-B43</f>
         <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="23" t="n">
+      <c r="B45" s="24" t="n">
         <v>44742</v>
       </c>
-      <c r="C45" s="6" t="n">
+      <c r="C45" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D45,4)</f>
         <v>-44.6184</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="7" t="n">
         <f aca="false">B45-B44</f>
         <v>30</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="23" t="n">
+      <c r="B46" s="24" t="n">
         <v>44773</v>
       </c>
-      <c r="C46" s="6" t="n">
+      <c r="C46" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D46,4)</f>
         <v>-46.1057</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="7" t="n">
         <f aca="false">B46-B45</f>
         <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="23" t="n">
+      <c r="B47" s="24" t="n">
         <v>44804</v>
       </c>
-      <c r="C47" s="6" t="n">
+      <c r="C47" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D47,4)</f>
         <v>-46.1057</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="7" t="n">
         <f aca="false">B47-B46</f>
         <v>31</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="23" t="n">
+      <c r="B48" s="24" t="n">
         <v>44834</v>
       </c>
-      <c r="C48" s="6" t="n">
+      <c r="C48" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D48,4)</f>
         <v>-44.6184</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="7" t="n">
         <f aca="false">B48-B47</f>
         <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="23" t="n">
+      <c r="B49" s="24" t="n">
         <v>44865</v>
       </c>
-      <c r="C49" s="6" t="n">
+      <c r="C49" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D49,4)</f>
         <v>-46.1057</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="7" t="n">
         <f aca="false">B49-B48</f>
         <v>31</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="23" t="n">
+      <c r="B50" s="24" t="n">
         <v>44895</v>
       </c>
-      <c r="C50" s="6" t="n">
+      <c r="C50" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D50,4)</f>
         <v>-44.6184</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="7" t="n">
         <f aca="false">B50-B49</f>
         <v>30</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="23" t="n">
+      <c r="B51" s="24" t="n">
         <v>44926</v>
       </c>
-      <c r="C51" s="6" t="n">
+      <c r="C51" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D51,4)</f>
         <v>-46.1057</v>
       </c>
-      <c r="D51" s="6" t="n">
+      <c r="D51" s="7" t="n">
         <f aca="false">B51-B50</f>
         <v>31</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="23" t="n">
+      <c r="B52" s="24" t="n">
         <v>44941</v>
       </c>
-      <c r="C52" s="6" t="n">
+      <c r="C52" s="7" t="n">
         <f aca="false">-ROUND($F$16/$D$53*D52,4)</f>
         <v>-22.3092</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="7" t="n">
         <f aca="false">B52-B51</f>
         <v>15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="n">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7" t="n">
         <f aca="false">SUM(C40:C52)</f>
         <v>-542.8573</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="7" t="n">
         <f aca="false">SUM(D40:D52)</f>
         <v>365</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
+      <c r="A55" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
+      <c r="A57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="C58" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="D58" s="12" t="s">
         <v>83</v>
       </c>
+      <c r="E58" s="12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="n">
+      <c r="A59" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="6" t="n">
+      <c r="D59" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="n">
+      <c r="A60" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="6"/>
+      <c r="D60" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
+      <c r="A61" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="A64" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
+      <c r="A67" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="11" t="s">
+      <c r="A68" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="11" t="s">
+      <c r="B68" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="D68" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="E68" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="F68" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="G68" s="12" t="s">
         <v>107</v>
       </c>
+      <c r="H68" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="n">
+      <c r="A69" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B69" s="6" t="str">
+      <c r="B69" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP(A69,A$7:$B59,2,FALSE()),"")</f>
         <v>Discount</v>
       </c>
-      <c r="C69" s="18" t="n">
+      <c r="C69" s="19" t="n">
         <v>-200</v>
       </c>
-      <c r="D69" s="18" t="n">
+      <c r="D69" s="19" t="n">
         <f aca="false">IFERROR(IF(VLOOKUP(B69,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C69,VLOOKUP(B69,$B$3:$E$7,4,FALSE())),"")</f>
         <v>0</v>
       </c>
-      <c r="E69" s="18" t="n">
+      <c r="E69" s="19" t="n">
         <f aca="false">IFERROR(D69/$D$18,"")</f>
         <v>0</v>
       </c>
-      <c r="F69" s="18" t="n">
+      <c r="F69" s="19" t="n">
         <f aca="false">IFERROR(E69*$C$18,"")</f>
         <v>0</v>
       </c>
-      <c r="G69" s="15" t="n">
+      <c r="G69" s="16" t="n">
         <v>44576</v>
       </c>
-      <c r="H69" s="15" t="n">
+      <c r="H69" s="16" t="n">
         <v>44576</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="n">
+      <c r="A70" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B70" s="6" t="str">
+      <c r="B70" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP(A70,A$7:$B60,2,FALSE()),"")</f>
         <v>SaaS Basic Subscription</v>
       </c>
-      <c r="C70" s="18" t="n">
+      <c r="C70" s="19" t="n">
         <v>1200</v>
       </c>
-      <c r="D70" s="18" t="n">
+      <c r="D70" s="19" t="n">
         <f aca="false">IFERROR(IF(VLOOKUP(B70,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C70,VLOOKUP(B70,$B$3:$E$7,4,FALSE())),"")</f>
         <v>1200</v>
       </c>
-      <c r="E70" s="18" t="n">
+      <c r="E70" s="19" t="n">
         <f aca="false">IFERROR(D70/$D$74,"")</f>
         <v>0.444444444444444</v>
       </c>
-      <c r="F70" s="18" t="n">
+      <c r="F70" s="19" t="n">
         <f aca="false">IFERROR(E70*$C$74,"")</f>
         <v>1111.11111111111</v>
       </c>
-      <c r="G70" s="15" t="n">
+      <c r="G70" s="16" t="n">
         <v>44576</v>
       </c>
-      <c r="H70" s="15" t="n">
+      <c r="H70" s="16" t="n">
         <v>44941</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="n">
+      <c r="A71" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B71" s="6" t="str">
+      <c r="B71" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP(A71,A$7:$B61,2,FALSE()),"")</f>
         <v>SaaS Implementation</v>
       </c>
-      <c r="C71" s="18" t="n">
+      <c r="C71" s="19" t="n">
         <v>300</v>
       </c>
-      <c r="D71" s="18" t="n">
+      <c r="D71" s="19" t="n">
         <f aca="false">IFERROR(IF(VLOOKUP(B71,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C71,VLOOKUP(B71,$B$3:$E$7,4,FALSE())),"")</f>
         <v>300</v>
       </c>
-      <c r="E71" s="18" t="n">
+      <c r="E71" s="19" t="n">
         <f aca="false">IFERROR(D71/$D$74,"")</f>
         <v>0.111111111111111</v>
       </c>
-      <c r="F71" s="18" t="n">
+      <c r="F71" s="19" t="n">
         <f aca="false">IFERROR(E71*$C$74,"")</f>
         <v>277.777777777778</v>
       </c>
-      <c r="G71" s="15" t="n">
+      <c r="G71" s="16" t="n">
         <v>44576</v>
       </c>
-      <c r="H71" s="15" t="n">
+      <c r="H71" s="16" t="n">
         <v>44576</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="n">
+      <c r="A72" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B72" s="6" t="str">
+      <c r="B72" s="7" t="str">
         <f aca="false">IFERROR(VLOOKUP(A72,A$7:$B62,2,FALSE()),"")</f>
         <v>SaaS Premium Subscription</v>
       </c>
-      <c r="C72" s="18" t="n">
+      <c r="C72" s="19" t="n">
         <v>1200</v>
       </c>
-      <c r="D72" s="18" t="n">
+      <c r="D72" s="19" t="n">
         <f aca="false">IFERROR(IF(VLOOKUP(B72,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C72,VLOOKUP(B72,$B$3:$E$7,4,FALSE())),"")</f>
         <v>1200</v>
       </c>
-      <c r="E72" s="18" t="n">
+      <c r="E72" s="19" t="n">
         <f aca="false">IFERROR(D72/$D$74,"")</f>
         <v>0.444444444444444</v>
       </c>
-      <c r="F72" s="18" t="n">
+      <c r="F72" s="19" t="n">
         <f aca="false">IFERROR(E72*$C$74,"")</f>
         <v>1111.11111111111</v>
       </c>
-      <c r="G72" s="15" t="n">
+      <c r="G72" s="16" t="n">
         <v>44576</v>
       </c>
-      <c r="H72" s="15" t="n">
+      <c r="H72" s="16" t="n">
         <v>44941</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20" t="n">
+      <c r="A74" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="n">
         <f aca="false">SUM(C69:C73)</f>
         <v>2500</v>
       </c>
-      <c r="D74" s="20" t="n">
+      <c r="D74" s="21" t="n">
         <f aca="false">SUM(D69:D73)</f>
         <v>2700</v>
       </c>
-      <c r="E74" s="20" t="n">
+      <c r="E74" s="21" t="n">
         <f aca="false">SUM(E69:E73)</f>
         <v>1</v>
       </c>
-      <c r="F74" s="20" t="n">
+      <c r="F74" s="21" t="n">
         <f aca="false">SUM(F69:F73)</f>
         <v>2500</v>
       </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+      <c r="B76" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="22" t="s">
+      <c r="B77" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="C77" s="23" t="s">
         <v>111</v>
       </c>
+      <c r="D77" s="23" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="23" t="n">
+      <c r="B78" s="24" t="n">
         <v>44592</v>
       </c>
-      <c r="C78" s="6" t="n">
+      <c r="C78" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D78,4)</f>
         <v>-48.7062</v>
       </c>
-      <c r="D78" s="6" t="n">
+      <c r="D78" s="7" t="n">
         <f aca="false">B78-G70</f>
         <v>16</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="23" t="n">
+      <c r="B79" s="24" t="n">
         <v>44620</v>
       </c>
-      <c r="C79" s="6" t="n">
+      <c r="C79" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D79,4)</f>
         <v>-85.2359</v>
       </c>
-      <c r="D79" s="6" t="n">
+      <c r="D79" s="7" t="n">
         <f aca="false">B79-B78</f>
         <v>28</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="23" t="n">
+      <c r="B80" s="24" t="n">
         <v>44651</v>
       </c>
-      <c r="C80" s="6" t="n">
+      <c r="C80" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D80,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D80" s="6" t="n">
+      <c r="D80" s="7" t="n">
         <f aca="false">B80-B79</f>
         <v>31</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="23" t="n">
+      <c r="B81" s="24" t="n">
         <v>44681</v>
       </c>
-      <c r="C81" s="6" t="n">
+      <c r="C81" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D81,4)</f>
         <v>-91.3242</v>
       </c>
-      <c r="D81" s="6" t="n">
+      <c r="D81" s="7" t="n">
         <f aca="false">B81-B80</f>
         <v>30</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="23" t="n">
+      <c r="B82" s="24" t="n">
         <v>44712</v>
       </c>
-      <c r="C82" s="6" t="n">
+      <c r="C82" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D82,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D82" s="6" t="n">
+      <c r="D82" s="7" t="n">
         <f aca="false">B82-B81</f>
         <v>31</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="23" t="n">
+      <c r="B83" s="24" t="n">
         <v>44742</v>
       </c>
-      <c r="C83" s="6" t="n">
+      <c r="C83" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D83,4)</f>
         <v>-91.3242</v>
       </c>
-      <c r="D83" s="6" t="n">
+      <c r="D83" s="7" t="n">
         <f aca="false">B83-B82</f>
         <v>30</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="23" t="n">
+      <c r="B84" s="24" t="n">
         <v>44773</v>
       </c>
-      <c r="C84" s="6" t="n">
+      <c r="C84" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D84,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D84" s="6" t="n">
+      <c r="D84" s="7" t="n">
         <f aca="false">B84-B83</f>
         <v>31</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="23" t="n">
+      <c r="B85" s="24" t="n">
         <v>44804</v>
       </c>
-      <c r="C85" s="6" t="n">
+      <c r="C85" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D85,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D85" s="6" t="n">
+      <c r="D85" s="7" t="n">
         <f aca="false">B85-B84</f>
         <v>31</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="23" t="n">
+      <c r="B86" s="24" t="n">
         <v>44834</v>
       </c>
-      <c r="C86" s="6" t="n">
+      <c r="C86" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D86,4)</f>
         <v>-91.3242</v>
       </c>
-      <c r="D86" s="6" t="n">
+      <c r="D86" s="7" t="n">
         <f aca="false">B86-B85</f>
         <v>30</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="23" t="n">
+      <c r="B87" s="24" t="n">
         <v>44865</v>
       </c>
-      <c r="C87" s="6" t="n">
+      <c r="C87" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D87,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D87" s="6" t="n">
+      <c r="D87" s="7" t="n">
         <f aca="false">B87-B86</f>
         <v>31</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="23" t="n">
+      <c r="B88" s="24" t="n">
         <v>44895</v>
       </c>
-      <c r="C88" s="6" t="n">
+      <c r="C88" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D88,4)</f>
         <v>-91.3242</v>
       </c>
-      <c r="D88" s="6" t="n">
+      <c r="D88" s="7" t="n">
         <f aca="false">B88-B87</f>
         <v>30</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="23" t="n">
+      <c r="B89" s="24" t="n">
         <v>44926</v>
       </c>
-      <c r="C89" s="6" t="n">
+      <c r="C89" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D89,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D89" s="6" t="n">
+      <c r="D89" s="7" t="n">
         <f aca="false">B89-B88</f>
         <v>31</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="23" t="n">
+      <c r="B90" s="24" t="n">
         <v>44941</v>
       </c>
-      <c r="C90" s="6" t="n">
+      <c r="C90" s="7" t="n">
         <f aca="false">-ROUND($F$70/$D$91*D90,4)</f>
         <v>-45.6621</v>
       </c>
-      <c r="D90" s="6" t="n">
+      <c r="D90" s="7" t="n">
         <f aca="false">B90-B89</f>
         <v>15</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6" t="n">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7" t="n">
         <f aca="false">SUM(C78:C90)</f>
         <v>-1111.1108</v>
       </c>
-      <c r="D91" s="6" t="n">
+      <c r="D91" s="7" t="n">
         <f aca="false">SUM(D78:D90)</f>
         <v>365</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
+      <c r="B94" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95" s="22" t="s">
+      <c r="B95" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="C95" s="23" t="s">
         <v>111</v>
       </c>
+      <c r="D95" s="23" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="23" t="n">
+      <c r="B96" s="24" t="n">
         <v>44592</v>
       </c>
-      <c r="C96" s="6" t="n">
+      <c r="C96" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D96,4)</f>
         <v>-48.7062</v>
       </c>
-      <c r="D96" s="6" t="n">
+      <c r="D96" s="7" t="n">
         <f aca="false">B96-G72</f>
         <v>16</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="23" t="n">
+      <c r="B97" s="24" t="n">
         <v>44620</v>
       </c>
-      <c r="C97" s="6" t="n">
+      <c r="C97" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D97,4)</f>
         <v>-85.2359</v>
       </c>
-      <c r="D97" s="6" t="n">
+      <c r="D97" s="7" t="n">
         <f aca="false">B97-B96</f>
         <v>28</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="23" t="n">
+      <c r="B98" s="24" t="n">
         <v>44651</v>
       </c>
-      <c r="C98" s="6" t="n">
+      <c r="C98" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D98,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D98" s="6" t="n">
+      <c r="D98" s="7" t="n">
         <f aca="false">B98-B97</f>
         <v>31</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="23" t="n">
+      <c r="B99" s="24" t="n">
         <v>44681</v>
       </c>
-      <c r="C99" s="6" t="n">
+      <c r="C99" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D99,4)</f>
         <v>-91.3242</v>
       </c>
-      <c r="D99" s="6" t="n">
+      <c r="D99" s="7" t="n">
         <f aca="false">B99-B98</f>
         <v>30</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="23" t="n">
+      <c r="B100" s="24" t="n">
         <v>44712</v>
       </c>
-      <c r="C100" s="6" t="n">
+      <c r="C100" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D100,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D100" s="6" t="n">
+      <c r="D100" s="7" t="n">
         <f aca="false">B100-B99</f>
         <v>31</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="23" t="n">
+      <c r="B101" s="24" t="n">
         <v>44742</v>
       </c>
-      <c r="C101" s="6" t="n">
+      <c r="C101" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D101,4)</f>
         <v>-91.3242</v>
       </c>
-      <c r="D101" s="6" t="n">
+      <c r="D101" s="7" t="n">
         <f aca="false">B101-B100</f>
         <v>30</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="23" t="n">
+      <c r="B102" s="24" t="n">
         <v>44773</v>
       </c>
-      <c r="C102" s="6" t="n">
+      <c r="C102" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D102,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D102" s="6" t="n">
+      <c r="D102" s="7" t="n">
         <f aca="false">B102-B101</f>
         <v>31</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="23" t="n">
+      <c r="B103" s="24" t="n">
         <v>44804</v>
       </c>
-      <c r="C103" s="6" t="n">
+      <c r="C103" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D103,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D103" s="6" t="n">
+      <c r="D103" s="7" t="n">
         <f aca="false">B103-B102</f>
         <v>31</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="23" t="n">
+      <c r="B104" s="24" t="n">
         <v>44834</v>
       </c>
-      <c r="C104" s="6" t="n">
+      <c r="C104" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D104,4)</f>
         <v>-91.3242</v>
       </c>
-      <c r="D104" s="6" t="n">
+      <c r="D104" s="7" t="n">
         <f aca="false">B104-B103</f>
         <v>30</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="23" t="n">
+      <c r="B105" s="24" t="n">
         <v>44865</v>
       </c>
-      <c r="C105" s="6" t="n">
+      <c r="C105" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D105,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D105" s="6" t="n">
+      <c r="D105" s="7" t="n">
         <f aca="false">B105-B104</f>
         <v>31</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="23" t="n">
+      <c r="B106" s="24" t="n">
         <v>44895</v>
       </c>
-      <c r="C106" s="6" t="n">
+      <c r="C106" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D106,4)</f>
         <v>-91.3242</v>
       </c>
-      <c r="D106" s="6" t="n">
+      <c r="D106" s="7" t="n">
         <f aca="false">B106-B105</f>
         <v>30</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="23" t="n">
+      <c r="B107" s="24" t="n">
         <v>44926</v>
       </c>
-      <c r="C107" s="6" t="n">
+      <c r="C107" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D107,4)</f>
         <v>-94.3683</v>
       </c>
-      <c r="D107" s="6" t="n">
+      <c r="D107" s="7" t="n">
         <f aca="false">B107-B106</f>
         <v>31</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="23" t="n">
+      <c r="B108" s="24" t="n">
         <v>44941</v>
       </c>
-      <c r="C108" s="6" t="n">
+      <c r="C108" s="7" t="n">
         <f aca="false">-ROUND($F$72/$D$109*D108,4)</f>
         <v>-45.6621</v>
       </c>
-      <c r="D108" s="6" t="n">
+      <c r="D108" s="7" t="n">
         <f aca="false">B108-B107</f>
         <v>15</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6" t="n">
+      <c r="B109" s="7"/>
+      <c r="C109" s="7" t="n">
         <f aca="false">SUM(C96:C108)</f>
         <v>-1111.1108</v>
       </c>
-      <c r="D109" s="6" t="n">
+      <c r="D109" s="7" t="n">
         <f aca="false">SUM(D96:D108)</f>
         <v>365</v>
       </c>

--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestRevenue (1)\TestRevenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B86401-A2B5-4FCD-AEAF-038FA9F1BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CBF98-AE28-4F0D-87E3-52170DB502D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -18,38 +18,38 @@
     <sheet name="O_TransactionActivity2" sheetId="8" r:id="rId3"/>
     <sheet name="O_TransactionActivity3" sheetId="9" r:id="rId4"/>
     <sheet name="O_TransactionActivity4" sheetId="10" r:id="rId5"/>
-    <sheet name="O_TransactionActivity5" sheetId="11" r:id="rId6"/>
-    <sheet name="O_Attribute" sheetId="3" r:id="rId7"/>
-    <sheet name="O_Attribute2" sheetId="12" r:id="rId8"/>
-    <sheet name="O_Attribute3" sheetId="13" r:id="rId9"/>
-    <sheet name="O_Attribute4" sheetId="14" r:id="rId10"/>
-    <sheet name="O_Attribute5" sheetId="15" r:id="rId11"/>
-    <sheet name="O_Instrument" sheetId="4" r:id="rId12"/>
-    <sheet name="O_Instrument2" sheetId="16" r:id="rId13"/>
-    <sheet name="O_Instrument3" sheetId="17" r:id="rId14"/>
-    <sheet name="O_Instrument4" sheetId="18" r:id="rId15"/>
+    <sheet name="O_Attribute" sheetId="3" r:id="rId6"/>
+    <sheet name="O_Attribute2" sheetId="12" r:id="rId7"/>
+    <sheet name="O_Attribute3" sheetId="13" r:id="rId8"/>
+    <sheet name="O_Attribute4" sheetId="14" r:id="rId9"/>
+    <sheet name="O_Instrument" sheetId="4" r:id="rId10"/>
+    <sheet name="O_Instrument2" sheetId="16" r:id="rId11"/>
+    <sheet name="O_Instrument3" sheetId="17" r:id="rId12"/>
+    <sheet name="O_Instrument4" sheetId="18" r:id="rId13"/>
+    <sheet name="O_TransactionActivity5" sheetId="11" r:id="rId14"/>
+    <sheet name="O_Attribute5" sheetId="15" r:id="rId15"/>
     <sheet name="O_Instrument5" sheetId="19" r:id="rId16"/>
     <sheet name="O_Metric" sheetId="5" r:id="rId17"/>
     <sheet name="O_InstrumentAttribute" sheetId="6" r:id="rId18"/>
     <sheet name="Calc" sheetId="7" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">O_Attribute!$A$2:$G$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">O_Attribute2!$A$2:$G$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">O_Attribute3!$A$2:$G$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">O_Attribute4!$A$2:$G$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">O_Attribute5!$A$2:$G$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">O_Instrument!$A$2:$F$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">O_Instrument2!$A$2:$F$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">O_Instrument3!$A$2:$F$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">O_Instrument4!$A$2:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">O_Attribute!$A$2:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">O_Attribute2!$A$2:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">O_Attribute3!$A$2:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">O_Attribute4!$A$2:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">O_Attribute5!$A$2:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">O_Instrument!$A$2:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">O_Instrument2!$A$2:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">O_Instrument3!$A$2:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">O_Instrument4!$A$2:$F$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">O_Instrument5!$A$2:$F$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">O_InstrumentAttribute!$A$2:$R$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">O_TransactionActivity2!$A$2:$J$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">O_TransactionActivity3!$A$2:$J$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">O_TransactionActivity4!$A$2:$J$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">O_TransactionActivity5!$A$2:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">O_TransactionActivity5!$A$2:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -628,23 +628,23 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,2150 +1020,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFFFE97-1003-49F3-83E2-C95E2F61DA0C}">
-  <dimension ref="A1:G46"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1371.2720000000002</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1371.2720000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1371.2720000000002</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1371.2720000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>-190.37200000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-190.37200000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-190.37200000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-190.37200000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>-1085.7144000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>-1085.7144000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>-95.186000000000007</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-95.186000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>-95.186000000000007</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-95.186000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>7600</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1371.2719999999999</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6228.7280000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1371.2719999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-1371.2719999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-190.37200000000001</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-333.15039999999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-523.52240000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-190.37200000000001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-333.15039999999999</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-523.52240000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="1">
-        <v>-95.186000000000007</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-166.5752</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-261.76120000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-95.186000000000007</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-166.5752</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-261.76120000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7600</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="1">
-        <v>7600</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-523.52239999999995</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-368.84559999999999</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-892.36799999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-523.52239999999995</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-368.84559999999999</v>
-      </c>
-      <c r="G24" s="1">
-        <v>-892.36799999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B27" s="1">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="1">
-        <v>-261.76119999999997</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-184.4228</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-446.18399999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="1">
-        <v>-261.76119999999997</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-184.4228</v>
-      </c>
-      <c r="G28" s="1">
-        <v>-446.18399999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="1">
-        <v>7600</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="1">
-        <v>7600</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="1">
-        <v>-892.36800000000005</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-386.17079999999999</v>
-      </c>
-      <c r="G32" s="1">
-        <v>-1278.5388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="1">
-        <v>-892.36800000000005</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-386.17079999999999</v>
-      </c>
-      <c r="G33" s="1">
-        <v>-1278.5388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-      <c r="F34" s="1">
-        <v>-25.396799999999999</v>
-      </c>
-      <c r="G34" s="1">
-        <v>-1111.1112000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="1">
-        <v>-1085.7144000000001</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-25.396799999999999</v>
-      </c>
-      <c r="G35" s="1">
-        <v>-1111.1112000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="1">
-        <v>-446.18400000000003</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-832.35479999999995</v>
-      </c>
-      <c r="G36" s="1">
-        <v>-1278.5388</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="1">
-        <v>-446.18400000000003</v>
-      </c>
-      <c r="F37" s="1">
-        <v>-832.35479999999995</v>
-      </c>
-      <c r="G37" s="1">
-        <v>-1278.5388</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="1">
-        <v>7600</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G38" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="1">
-        <v>7600</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G39" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="1">
-        <v>-1278.5388</v>
-      </c>
-      <c r="F41" s="1">
-        <v>-377.47320000000002</v>
-      </c>
-      <c r="G41" s="1">
-        <v>-1656.0120000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="1">
-        <v>-1278.5388</v>
-      </c>
-      <c r="F42" s="1">
-        <v>-377.47320000000002</v>
-      </c>
-      <c r="G42" s="1">
-        <v>-1656.0120000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B43" s="1">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="1">
-        <v>-1111.1112000000001</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>-1111.1112000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="1">
-        <v>-1111.1112000000001</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>-1111.1112000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="1">
-        <v>-1278.5388</v>
-      </c>
-      <c r="F45" s="1">
-        <v>-377.47320000000002</v>
-      </c>
-      <c r="G45" s="1">
-        <v>-1656.0120000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="1">
-        <v>-1278.5388</v>
-      </c>
-      <c r="F46" s="1">
-        <v>-377.47320000000002</v>
-      </c>
-      <c r="G46" s="1">
-        <v>-1656.0120000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E433FD4-1CD7-4287-A08F-AE9EDE2DEA08}">
-  <dimension ref="A1:G46"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1714.0900000000001</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1714.0900000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1714.0900000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1714.0900000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>-237.96500000000003</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-237.96500000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-237.96500000000003</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-237.96500000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>-1357.143</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-1357.143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>-1357.143</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-1357.143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>-118.98250000000002</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-118.98250000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>-118.98250000000002</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-118.98250000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>9500</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1714.09</v>
-      </c>
-      <c r="F12" s="1">
-        <v>7785.91</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1714.09</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-1714.09</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-237.96500000000003</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-416.43799999999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-654.40300000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-237.96500000000003</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-416.43799999999999</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-654.40300000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-1357.143</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-1357.143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-1357.143</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-1357.143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="1">
-        <v>-118.98250000000002</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-208.21899999999999</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-327.20150000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-118.98250000000002</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-208.21899999999999</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-327.20150000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="1">
-        <v>9500</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="1">
-        <v>9500</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-654.40299999999991</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-461.05700000000002</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-1115.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-654.40299999999991</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-461.05700000000002</v>
-      </c>
-      <c r="G24" s="1">
-        <v>-1115.46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="1">
-        <v>-1357.143</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-1357.143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-1357.143</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-1357.143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B27" s="1">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="1">
-        <v>-327.20149999999995</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-230.52850000000001</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-557.73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="1">
-        <v>-327.20149999999995</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-230.52850000000001</v>
-      </c>
-      <c r="G28" s="1">
-        <v>-557.73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="1">
-        <v>9500</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="1">
-        <v>9500</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="1">
-        <v>-1115.46</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-482.71349999999995</v>
-      </c>
-      <c r="G32" s="1">
-        <v>-1598.1735000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="1">
-        <v>-1115.46</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-482.71349999999995</v>
-      </c>
-      <c r="G33" s="1">
-        <v>-1598.1735000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="1">
-        <v>-1357.143</v>
-      </c>
-      <c r="F34" s="1">
-        <v>-31.745999999999999</v>
-      </c>
-      <c r="G34" s="1">
-        <v>-1388.8890000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="1">
-        <v>-1357.143</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-31.745999999999999</v>
-      </c>
-      <c r="G35" s="1">
-        <v>-1388.8890000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="1">
-        <v>-557.73</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-1040.4434999999999</v>
-      </c>
-      <c r="G36" s="1">
-        <v>-1598.1735000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="1">
-        <v>-557.73</v>
-      </c>
-      <c r="F37" s="1">
-        <v>-1040.4434999999999</v>
-      </c>
-      <c r="G37" s="1">
-        <v>-1598.1735000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="1">
-        <v>9500</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G38" s="1">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="1">
-        <v>9500</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G39" s="1">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="1">
-        <v>-1598.1735000000001</v>
-      </c>
-      <c r="F41" s="1">
-        <v>-471.8415</v>
-      </c>
-      <c r="G41" s="1">
-        <v>-2070.0150000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="1">
-        <v>-1598.1735000000001</v>
-      </c>
-      <c r="F42" s="1">
-        <v>-471.8415</v>
-      </c>
-      <c r="G42" s="1">
-        <v>-2070.0150000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B43" s="1">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="1">
-        <v>-1388.8890000000001</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>-1388.8890000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="1">
-        <v>-1388.8890000000001</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>-1388.8890000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="1">
-        <v>-1598.1735000000001</v>
-      </c>
-      <c r="F45" s="1">
-        <v>-471.8415</v>
-      </c>
-      <c r="G45" s="1">
-        <v>-2070.0150000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>20220531</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="1">
-        <v>-1598.1735000000001</v>
-      </c>
-      <c r="F46" s="1">
-        <v>-471.8415</v>
-      </c>
-      <c r="G46" s="1">
-        <v>-2070.0150000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -3184,7 +1040,7 @@
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3603,13 +1459,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE57E84-0B85-453D-A7D3-352616C672DF}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3624,7 +1478,7 @@
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3659,13 +1513,13 @@
         <v>113</v>
       </c>
       <c r="D3" s="23">
-        <v>-1.9999999999242846E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="23">
         <v>0</v>
       </c>
       <c r="F3" s="23">
-        <v>-1.9999999999242846E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3679,13 +1533,13 @@
         <v>113</v>
       </c>
       <c r="D4" s="23">
-        <v>-685.63620000000003</v>
+        <v>-685.63599999999997</v>
       </c>
       <c r="E4" s="23">
         <v>0</v>
       </c>
       <c r="F4" s="23">
-        <v>-685.63620000000003</v>
+        <v>-685.63599999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,13 +1553,13 @@
         <v>113</v>
       </c>
       <c r="D5" s="23">
-        <v>685.63600000000008</v>
+        <v>685.63599999999997</v>
       </c>
       <c r="E5" s="23">
         <v>0</v>
       </c>
       <c r="F5" s="23">
-        <v>685.63600000000008</v>
+        <v>685.63599999999997</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,10 +1593,10 @@
         <v>113</v>
       </c>
       <c r="D7" s="23">
-        <v>2864.5012000000002</v>
+        <v>2864.5010000000002</v>
       </c>
       <c r="E7" s="23">
-        <v>-2.0000000010611529E-4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="23">
         <v>2864.5010000000002</v>
@@ -3759,10 +1613,10 @@
         <v>113</v>
       </c>
       <c r="D8" s="23">
-        <v>-249.86279999999999</v>
+        <v>-249.863</v>
       </c>
       <c r="E8" s="23">
-        <v>-685.63620000000003</v>
+        <v>-685.63599999999997</v>
       </c>
       <c r="F8" s="23">
         <v>-935.49900000000002</v>
@@ -3819,13 +1673,13 @@
         <v>113</v>
       </c>
       <c r="D11" s="23">
-        <v>-276.63419999999996</v>
+        <v>-276.63409999999999</v>
       </c>
       <c r="E11" s="23">
         <v>2864.5010000000002</v>
       </c>
       <c r="F11" s="23">
-        <v>2587.8667999999998</v>
+        <v>2587.8669</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3839,13 +1693,13 @@
         <v>113</v>
       </c>
       <c r="D12" s="23">
-        <v>-276.63419999999996</v>
+        <v>-276.63409999999999</v>
       </c>
       <c r="E12" s="23">
         <v>-935.49900000000002</v>
       </c>
       <c r="F12" s="23">
-        <v>-1212.1332</v>
+        <v>-1212.1331</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3899,13 +1753,13 @@
         <v>113</v>
       </c>
       <c r="D15" s="23">
-        <v>-621.96119999999996</v>
+        <v>-621.96130000000005</v>
       </c>
       <c r="E15" s="23">
-        <v>2587.8667999999998</v>
+        <v>2587.8669</v>
       </c>
       <c r="F15" s="23">
-        <v>1965.9055999999996</v>
+        <v>1965.9056</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3919,10 +1773,10 @@
         <v>113</v>
       </c>
       <c r="D16" s="23">
-        <v>-621.96119999999996</v>
+        <v>-621.96130000000005</v>
       </c>
       <c r="E16" s="23">
-        <v>-1212.1332000000002</v>
+        <v>-1212.1331</v>
       </c>
       <c r="F16" s="23">
         <v>-1834.0944</v>
@@ -3979,13 +1833,13 @@
         <v>113</v>
       </c>
       <c r="D19" s="23">
-        <v>822.52680000000009</v>
+        <v>822.52660000000003</v>
       </c>
       <c r="E19" s="23">
-        <v>1965.9055999999996</v>
+        <v>1965.9056</v>
       </c>
       <c r="F19" s="23">
-        <v>2788.4323999999997</v>
+        <v>2788.4322000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3999,13 +1853,13 @@
         <v>113</v>
       </c>
       <c r="D20" s="23">
-        <v>-377.47320000000002</v>
+        <v>-377.47340000000003</v>
       </c>
       <c r="E20" s="23">
         <v>-1834.0944</v>
       </c>
       <c r="F20" s="23">
-        <v>-2211.5676000000003</v>
+        <v>-2211.5677999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4038,13 +1892,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD2C3A5-E1A8-4553-B940-7D149658B15C}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4059,7 +1911,7 @@
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4094,13 +1946,13 @@
         <v>114</v>
       </c>
       <c r="D3" s="23">
-        <v>-2.9999999992469384E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="23">
         <v>0</v>
       </c>
       <c r="F3" s="23">
-        <v>-2.9999999992469384E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4114,13 +1966,13 @@
         <v>114</v>
       </c>
       <c r="D4" s="23">
-        <v>-1028.4543000000001</v>
+        <v>-1028.454</v>
       </c>
       <c r="E4" s="23">
         <v>0</v>
       </c>
       <c r="F4" s="23">
-        <v>-1028.4543000000001</v>
+        <v>-1028.454</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4134,13 +1986,13 @@
         <v>114</v>
       </c>
       <c r="D5" s="23">
-        <v>1028.4540000000002</v>
+        <v>1028.454</v>
       </c>
       <c r="E5" s="23">
         <v>0</v>
       </c>
       <c r="F5" s="23">
-        <v>1028.4540000000002</v>
+        <v>1028.454</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4174,13 +2026,13 @@
         <v>114</v>
       </c>
       <c r="D7" s="23">
-        <v>4296.7518</v>
+        <v>4296.7515000000003</v>
       </c>
       <c r="E7" s="23">
-        <v>-3.0000000015206751E-4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="23">
-        <v>4296.7514999999994</v>
+        <v>4296.7515000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4194,13 +2046,13 @@
         <v>114</v>
       </c>
       <c r="D8" s="23">
-        <v>-374.79419999999999</v>
+        <v>-374.79450000000003</v>
       </c>
       <c r="E8" s="23">
-        <v>-1028.4543000000001</v>
+        <v>-1028.454</v>
       </c>
       <c r="F8" s="23">
-        <v>-1403.2485000000001</v>
+        <v>-1403.2484999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4254,13 +2106,13 @@
         <v>114</v>
       </c>
       <c r="D11" s="23">
-        <v>-414.95129999999995</v>
+        <v>-414.9511</v>
       </c>
       <c r="E11" s="23">
-        <v>4296.7514999999994</v>
+        <v>4296.7515000000003</v>
       </c>
       <c r="F11" s="23">
-        <v>3881.8002000000006</v>
+        <v>3881.8004000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4274,13 +2126,13 @@
         <v>114</v>
       </c>
       <c r="D12" s="23">
-        <v>-414.95129999999995</v>
+        <v>-414.9511</v>
       </c>
       <c r="E12" s="23">
         <v>-1403.2484999999999</v>
       </c>
       <c r="F12" s="23">
-        <v>-1818.1997999999999</v>
+        <v>-1818.1995999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4334,13 +2186,13 @@
         <v>114</v>
       </c>
       <c r="D15" s="23">
-        <v>-932.94179999999994</v>
+        <v>-932.94190000000003</v>
       </c>
       <c r="E15" s="23">
-        <v>3881.8002000000006</v>
+        <v>3881.8004000000001</v>
       </c>
       <c r="F15" s="23">
-        <v>2948.8584000000001</v>
+        <v>2948.8584999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4354,13 +2206,13 @@
         <v>114</v>
       </c>
       <c r="D16" s="23">
-        <v>-932.94179999999994</v>
+        <v>-932.94190000000003</v>
       </c>
       <c r="E16" s="23">
-        <v>-1818.1998000000003</v>
+        <v>-1818.1995999999999</v>
       </c>
       <c r="F16" s="23">
-        <v>-2751.1415999999999</v>
+        <v>-2751.1415000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4414,13 +2266,13 @@
         <v>114</v>
       </c>
       <c r="D19" s="23">
-        <v>1233.7901999999999</v>
+        <v>1233.79</v>
       </c>
       <c r="E19" s="23">
-        <v>2948.8584000000001</v>
+        <v>2948.8584999999998</v>
       </c>
       <c r="F19" s="23">
-        <v>4182.6486000000004</v>
+        <v>4182.6485000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4434,13 +2286,13 @@
         <v>114</v>
       </c>
       <c r="D20" s="23">
-        <v>-566.20980000000009</v>
+        <v>-566.21</v>
       </c>
       <c r="E20" s="23">
-        <v>-2751.1415999999999</v>
+        <v>-2751.1415000000002</v>
       </c>
       <c r="F20" s="23">
-        <v>-3317.3514</v>
+        <v>-3317.3515000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4473,13 +2325,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95232859-3ACC-4D52-AA1F-76F2F7167996}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4494,7 +2344,7 @@
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4529,13 +2379,13 @@
         <v>115</v>
       </c>
       <c r="D3" s="23">
-        <v>-3.9999999998485691E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="23">
         <v>0</v>
       </c>
       <c r="F3" s="23">
-        <v>-3.9999999998485691E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4549,13 +2399,13 @@
         <v>115</v>
       </c>
       <c r="D4" s="23">
-        <v>-1371.2724000000001</v>
+        <v>-1371.2719999999999</v>
       </c>
       <c r="E4" s="23">
         <v>0</v>
       </c>
       <c r="F4" s="23">
-        <v>-1371.2724000000001</v>
+        <v>-1371.2719999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4569,13 +2419,13 @@
         <v>115</v>
       </c>
       <c r="D5" s="23">
-        <v>1371.2720000000002</v>
+        <v>1371.2719999999999</v>
       </c>
       <c r="E5" s="23">
         <v>0</v>
       </c>
       <c r="F5" s="23">
-        <v>1371.2720000000002</v>
+        <v>1371.2719999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4609,13 +2459,13 @@
         <v>115</v>
       </c>
       <c r="D7" s="23">
-        <v>5729.0024000000003</v>
+        <v>5729.0019000000002</v>
       </c>
       <c r="E7" s="23">
-        <v>-4.0000000021223059E-4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="23">
-        <v>5729.0020000000004</v>
+        <v>5729.0019000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4629,13 +2479,13 @@
         <v>115</v>
       </c>
       <c r="D8" s="23">
-        <v>-499.72559999999999</v>
+        <v>-499.72609999999997</v>
       </c>
       <c r="E8" s="23">
-        <v>-1371.2724000000001</v>
+        <v>-1371.2719999999999</v>
       </c>
       <c r="F8" s="23">
-        <v>-1870.998</v>
+        <v>-1870.9981</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4689,13 +2539,13 @@
         <v>115</v>
       </c>
       <c r="D11" s="23">
-        <v>-553.26839999999993</v>
+        <v>-553.2681</v>
       </c>
       <c r="E11" s="23">
-        <v>5729.0020000000004</v>
+        <v>5729.0019000000002</v>
       </c>
       <c r="F11" s="23">
-        <v>5175.7335999999996</v>
+        <v>5175.7338</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4709,13 +2559,13 @@
         <v>115</v>
       </c>
       <c r="D12" s="23">
-        <v>-553.26839999999993</v>
+        <v>-553.2681</v>
       </c>
       <c r="E12" s="23">
-        <v>-1870.998</v>
+        <v>-1870.9981</v>
       </c>
       <c r="F12" s="23">
-        <v>-2424.2664</v>
+        <v>-2424.2662</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4769,13 +2619,13 @@
         <v>115</v>
       </c>
       <c r="D15" s="23">
-        <v>-1243.9223999999999</v>
+        <v>-1243.9224999999999</v>
       </c>
       <c r="E15" s="23">
-        <v>5175.7335999999996</v>
+        <v>5175.7338</v>
       </c>
       <c r="F15" s="23">
-        <v>3931.8111999999992</v>
+        <v>3931.8112999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4789,13 +2639,13 @@
         <v>115</v>
       </c>
       <c r="D16" s="23">
-        <v>-1243.9223999999999</v>
+        <v>-1243.9224999999999</v>
       </c>
       <c r="E16" s="23">
-        <v>-2424.2664000000004</v>
+        <v>-2424.2662</v>
       </c>
       <c r="F16" s="23">
-        <v>-3668.1887999999999</v>
+        <v>-3668.1887000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4849,13 +2699,13 @@
         <v>115</v>
       </c>
       <c r="D19" s="23">
-        <v>1645.0536000000002</v>
+        <v>1645.0532000000001</v>
       </c>
       <c r="E19" s="23">
-        <v>3931.8111999999992</v>
+        <v>3931.8112999999998</v>
       </c>
       <c r="F19" s="23">
-        <v>5576.8647999999994</v>
+        <v>5576.8644999999997</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4869,13 +2719,13 @@
         <v>115</v>
       </c>
       <c r="D20" s="23">
-        <v>-754.94640000000004</v>
+        <v>-754.94680000000005</v>
       </c>
       <c r="E20" s="23">
-        <v>-3668.1887999999999</v>
+        <v>-3668.1887000000002</v>
       </c>
       <c r="F20" s="23">
-        <v>-4423.1352000000006</v>
+        <v>-4423.1355000000003</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4896,6 +2746,1651 @@
       </c>
       <c r="F21" s="23">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E58B1-D977-4AB2-8F0A-647A07442DE7}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="21.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="20">
+        <v>20220131</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1714.0900000000001</v>
+      </c>
+      <c r="H3" s="20">
+        <v>202201</v>
+      </c>
+      <c r="I3" s="20">
+        <v>202201</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="20">
+        <v>20220131</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="21">
+        <v>-237.96500000000003</v>
+      </c>
+      <c r="H4" s="20">
+        <v>202201</v>
+      </c>
+      <c r="I4" s="20">
+        <v>202201</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>20220131</v>
+      </c>
+      <c r="B5" s="20">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="20">
+        <v>20220131</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="21">
+        <v>-1357.143</v>
+      </c>
+      <c r="H5" s="20">
+        <v>202201</v>
+      </c>
+      <c r="I5" s="20">
+        <v>202201</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>20220131</v>
+      </c>
+      <c r="B6" s="20">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="20">
+        <v>20220131</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="21">
+        <v>-118.98250000000002</v>
+      </c>
+      <c r="H6" s="20">
+        <v>202201</v>
+      </c>
+      <c r="I6" s="20">
+        <v>202201</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>20220228</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="20">
+        <v>20220228</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="21">
+        <v>9500</v>
+      </c>
+      <c r="H7" s="20">
+        <v>202202</v>
+      </c>
+      <c r="I7" s="20">
+        <v>202202</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>20220228</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="20">
+        <v>20220228</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="21">
+        <v>-1714.0900000000001</v>
+      </c>
+      <c r="H8" s="20">
+        <v>202202</v>
+      </c>
+      <c r="I8" s="20">
+        <v>202202</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>20220228</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="20">
+        <v>20220228</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="21">
+        <v>-416.43799999999999</v>
+      </c>
+      <c r="H9" s="20">
+        <v>202202</v>
+      </c>
+      <c r="I9" s="20">
+        <v>202202</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>20220228</v>
+      </c>
+      <c r="B10" s="20">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="20">
+        <v>20220228</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="21">
+        <v>-208.21899999999999</v>
+      </c>
+      <c r="H10" s="20">
+        <v>202202</v>
+      </c>
+      <c r="I10" s="20">
+        <v>202202</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>20220331</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="20">
+        <v>20220331</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="21">
+        <v>-461.05700000000002</v>
+      </c>
+      <c r="H11" s="20">
+        <v>202203</v>
+      </c>
+      <c r="I11" s="20">
+        <v>202203</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>20220331</v>
+      </c>
+      <c r="B12" s="20">
+        <v>4</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="20">
+        <v>20220331</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="21">
+        <v>-230.52850000000001</v>
+      </c>
+      <c r="H12" s="20">
+        <v>202203</v>
+      </c>
+      <c r="I12" s="20">
+        <v>202203</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>20220430</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="20">
+        <v>20220430</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="21">
+        <v>-482.71349999999995</v>
+      </c>
+      <c r="H13" s="20">
+        <v>202204</v>
+      </c>
+      <c r="I13" s="20">
+        <v>202204</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>20220430</v>
+      </c>
+      <c r="B14" s="20">
+        <v>3</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="20">
+        <v>20220430</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="21">
+        <v>-31.745999999999999</v>
+      </c>
+      <c r="H14" s="20">
+        <v>202204</v>
+      </c>
+      <c r="I14" s="20">
+        <v>202204</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>20220430</v>
+      </c>
+      <c r="B15" s="20">
+        <v>4</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="20">
+        <v>20220430</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="21">
+        <v>-1040.4434999999999</v>
+      </c>
+      <c r="H15" s="20">
+        <v>202204</v>
+      </c>
+      <c r="I15" s="20">
+        <v>202204</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>20220531</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="20">
+        <v>20220531</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="22">
+        <v>3000</v>
+      </c>
+      <c r="H16" s="20">
+        <v>202205</v>
+      </c>
+      <c r="I16" s="20">
+        <v>202205</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>20220531</v>
+      </c>
+      <c r="B17" s="20">
+        <v>2</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="20">
+        <v>20220531</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="21">
+        <v>-471.8415</v>
+      </c>
+      <c r="H17" s="20">
+        <v>202205</v>
+      </c>
+      <c r="I17" s="20">
+        <v>202205</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>20220531</v>
+      </c>
+      <c r="B18" s="20">
+        <v>4</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="20">
+        <v>20220531</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="21">
+        <v>-471.8415</v>
+      </c>
+      <c r="H18" s="20">
+        <v>202205</v>
+      </c>
+      <c r="I18" s="20">
+        <v>202205</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E433FD4-1CD7-4287-A08F-AE9EDE2DEA08}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1714.0900000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1714.0900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1714.0900000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1714.0900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-237.96500000000003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-237.96500000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-237.96500000000003</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-237.96500000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-1357.143</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1357.143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-1357.143</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1357.143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-118.98250000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-118.98250000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-118.98250000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-118.98250000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>9500</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1714.09</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7785.91</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1714.09</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1714.09</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-237.96500000000003</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-416.43799999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-654.40300000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-237.96500000000003</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-416.43799999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-654.40300000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1357.143</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1357.143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1357.143</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1357.143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-118.98250000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-208.21899999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-327.20150000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-118.98250000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-208.21899999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-327.20150000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9500</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-654.40299999999991</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-461.05700000000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-1115.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-654.40299999999991</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-461.05700000000002</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1115.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1357.143</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1357.143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1357.143</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1357.143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-327.20149999999995</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-230.52850000000001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-557.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-327.20149999999995</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-230.52850000000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-557.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9500</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="1">
+        <v>9500</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-1115.46</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-482.71349999999995</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1598.1735000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-1115.46</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-482.71349999999995</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1598.1735000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-1357.143</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-31.745999999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1388.8890000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-1357.143</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-31.745999999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-1388.8890000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-557.73</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-1040.4434999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-1598.1735000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-557.73</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-1040.4434999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-1598.1735000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9500</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9500</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-1598.1735000000001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-471.8415</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-2070.0150000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-1598.1735000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-471.8415</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-2070.0150000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-1388.8890000000001</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-1388.8890000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-1388.8890000000001</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-1388.8890000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-1598.1735000000001</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-471.8415</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-2070.0150000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-1598.1735000000001</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-471.8415</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-2070.0150000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4927,7 +4422,7 @@
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5723,7 +5218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5748,7 +5243,7 @@
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6364,13 +5859,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -6388,7 +5883,7 @@
       <c r="E2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>84</v>
       </c>
       <c r="M2" s="12" t="s">
@@ -6426,7 +5921,7 @@
       <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="29"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="7" t="s">
         <v>93</v>
       </c>
@@ -6460,7 +5955,7 @@
         <v>96</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="L4" s="29"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="7" t="s">
         <v>93</v>
       </c>
@@ -6729,11 +6224,11 @@
       <c r="H18" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
@@ -6927,11 +6422,11 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
@@ -7125,33 +6620,33 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
     </row>
     <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -7451,11 +6946,11 @@
       <c r="H74" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="18" t="s">
@@ -7649,11 +7144,11 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
@@ -7848,11 +7343,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B38:D38"/>
@@ -7860,6 +7350,11 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A67:H67"/>
     <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7870,8 +7365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7884,7 +7379,7 @@
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>118</v>
       </c>
       <c r="G1" s="5"/>
@@ -8454,9 +7949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE128C4-3272-4542-9CF5-C9C2B32E1D80}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8468,7 +7961,7 @@
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>119</v>
       </c>
       <c r="G1" s="5"/>
@@ -8525,7 +8018,7 @@
         <v>113</v>
       </c>
       <c r="G3" s="8">
-        <v>685.63600000000008</v>
+        <v>685.63599999999997</v>
       </c>
       <c r="H3" s="7">
         <v>202201</v>
@@ -8557,7 +8050,7 @@
         <v>113</v>
       </c>
       <c r="G4" s="8">
-        <v>-95.186000000000007</v>
+        <v>-95.185900000000004</v>
       </c>
       <c r="H4" s="7">
         <v>202201</v>
@@ -8589,7 +8082,7 @@
         <v>113</v>
       </c>
       <c r="G5" s="8">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
       <c r="H5" s="7">
         <v>202201</v>
@@ -8685,7 +8178,7 @@
         <v>113</v>
       </c>
       <c r="G8" s="8">
-        <v>-685.63600000000008</v>
+        <v>-685.63599999999997</v>
       </c>
       <c r="H8" s="7">
         <v>202202</v>
@@ -8717,7 +8210,7 @@
         <v>113</v>
       </c>
       <c r="G9" s="8">
-        <v>-166.5752</v>
+        <v>-166.5754</v>
       </c>
       <c r="H9" s="7">
         <v>202202</v>
@@ -8781,7 +8274,7 @@
         <v>113</v>
       </c>
       <c r="G11" s="8">
-        <v>-184.4228</v>
+        <v>-184.42269999999999</v>
       </c>
       <c r="H11" s="7">
         <v>202203</v>
@@ -8877,7 +8370,7 @@
         <v>113</v>
       </c>
       <c r="G14" s="8">
-        <v>-12.698399999999999</v>
+        <v>-12.698499999999999</v>
       </c>
       <c r="H14" s="7">
         <v>202204</v>
@@ -8973,7 +8466,7 @@
         <v>113</v>
       </c>
       <c r="G17" s="8">
-        <v>-188.73660000000001</v>
+        <v>-188.73670000000001</v>
       </c>
       <c r="H17" s="7">
         <v>202205</v>
@@ -9005,7 +8498,7 @@
         <v>113</v>
       </c>
       <c r="G18" s="8">
-        <v>-188.73660000000001</v>
+        <v>-188.73670000000001</v>
       </c>
       <c r="H18" s="7">
         <v>202205</v>
@@ -9031,9 +8524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FACF7B-FF33-4E75-BEBC-909C781D280E}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9045,7 +8536,7 @@
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>120</v>
       </c>
       <c r="G1" s="5"/>
@@ -9102,7 +8593,7 @@
         <v>114</v>
       </c>
       <c r="G3" s="21">
-        <v>1028.4540000000002</v>
+        <v>1028.454</v>
       </c>
       <c r="H3" s="20">
         <v>202201</v>
@@ -9134,7 +8625,7 @@
         <v>114</v>
       </c>
       <c r="G4" s="21">
-        <v>-142.779</v>
+        <v>-142.77889999999999</v>
       </c>
       <c r="H4" s="20">
         <v>202201</v>
@@ -9166,7 +8657,7 @@
         <v>114</v>
       </c>
       <c r="G5" s="21">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
       <c r="H5" s="20">
         <v>202201</v>
@@ -9198,7 +8689,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="21">
-        <v>-71.389499999999998</v>
+        <v>-71.389399999999995</v>
       </c>
       <c r="H6" s="20">
         <v>202201</v>
@@ -9262,7 +8753,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="21">
-        <v>-1028.4540000000002</v>
+        <v>-1028.454</v>
       </c>
       <c r="H8" s="20">
         <v>202202</v>
@@ -9294,7 +8785,7 @@
         <v>114</v>
       </c>
       <c r="G9" s="21">
-        <v>-249.86279999999999</v>
+        <v>-249.863</v>
       </c>
       <c r="H9" s="20">
         <v>202202</v>
@@ -9326,7 +8817,7 @@
         <v>114</v>
       </c>
       <c r="G10" s="21">
-        <v>-124.9314</v>
+        <v>-124.9315</v>
       </c>
       <c r="H10" s="20">
         <v>202202</v>
@@ -9358,7 +8849,7 @@
         <v>114</v>
       </c>
       <c r="G11" s="21">
-        <v>-276.63419999999996</v>
+        <v>-276.63400000000001</v>
       </c>
       <c r="H11" s="20">
         <v>202203</v>
@@ -9390,7 +8881,7 @@
         <v>114</v>
       </c>
       <c r="G12" s="21">
-        <v>-138.31709999999998</v>
+        <v>-138.31710000000001</v>
       </c>
       <c r="H12" s="20">
         <v>202203</v>
@@ -9422,7 +8913,7 @@
         <v>114</v>
       </c>
       <c r="G13" s="21">
-        <v>-289.62810000000002</v>
+        <v>-289.62819999999999</v>
       </c>
       <c r="H13" s="20">
         <v>202204</v>
@@ -9486,7 +8977,7 @@
         <v>114</v>
       </c>
       <c r="G15" s="21">
-        <v>-624.26609999999994</v>
+        <v>-624.26610000000005</v>
       </c>
       <c r="H15" s="20">
         <v>202204</v>
@@ -9550,7 +9041,7 @@
         <v>114</v>
       </c>
       <c r="G17" s="21">
-        <v>-283.10490000000004</v>
+        <v>-283.10500000000002</v>
       </c>
       <c r="H17" s="20">
         <v>202205</v>
@@ -9582,7 +9073,7 @@
         <v>114</v>
       </c>
       <c r="G18" s="21">
-        <v>-283.10490000000004</v>
+        <v>-283.10500000000002</v>
       </c>
       <c r="H18" s="20">
         <v>202205</v>
@@ -9608,9 +9099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB707A6-16AA-42D5-BBFE-93ACD3FDBA16}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9622,7 +9111,7 @@
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>121</v>
       </c>
       <c r="G1" s="5"/>
@@ -9679,7 +9168,7 @@
         <v>115</v>
       </c>
       <c r="G3" s="8">
-        <v>1371.2720000000002</v>
+        <v>1371.2719999999999</v>
       </c>
       <c r="H3" s="7">
         <v>202201</v>
@@ -9711,7 +9200,7 @@
         <v>115</v>
       </c>
       <c r="G4" s="8">
-        <v>-190.37200000000001</v>
+        <v>-190.37180000000001</v>
       </c>
       <c r="H4" s="7">
         <v>202201</v>
@@ -9743,7 +9232,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="8">
-        <v>-1085.7144000000001</v>
+        <v>-1085.7143000000001</v>
       </c>
       <c r="H5" s="7">
         <v>202201</v>
@@ -9775,7 +9264,7 @@
         <v>115</v>
       </c>
       <c r="G6" s="8">
-        <v>-95.186000000000007</v>
+        <v>-95.185900000000004</v>
       </c>
       <c r="H6" s="7">
         <v>202201</v>
@@ -9839,7 +9328,7 @@
         <v>115</v>
       </c>
       <c r="G8" s="8">
-        <v>-1371.2720000000002</v>
+        <v>-1371.2719999999999</v>
       </c>
       <c r="H8" s="7">
         <v>202202</v>
@@ -9871,7 +9360,7 @@
         <v>115</v>
       </c>
       <c r="G9" s="8">
-        <v>-333.15039999999999</v>
+        <v>-333.15069999999997</v>
       </c>
       <c r="H9" s="7">
         <v>202202</v>
@@ -9903,7 +9392,7 @@
         <v>115</v>
       </c>
       <c r="G10" s="8">
-        <v>-166.5752</v>
+        <v>-166.5754</v>
       </c>
       <c r="H10" s="7">
         <v>202202</v>
@@ -9935,7 +9424,7 @@
         <v>115</v>
       </c>
       <c r="G11" s="8">
-        <v>-368.84559999999999</v>
+        <v>-368.84539999999998</v>
       </c>
       <c r="H11" s="7">
         <v>202203</v>
@@ -9967,7 +9456,7 @@
         <v>115</v>
       </c>
       <c r="G12" s="8">
-        <v>-184.4228</v>
+        <v>-184.42269999999999</v>
       </c>
       <c r="H12" s="7">
         <v>202203</v>
@@ -9999,7 +9488,7 @@
         <v>115</v>
       </c>
       <c r="G13" s="8">
-        <v>-386.17079999999999</v>
+        <v>-386.17090000000002</v>
       </c>
       <c r="H13" s="7">
         <v>202204</v>
@@ -10127,7 +9616,7 @@
         <v>115</v>
       </c>
       <c r="G17" s="8">
-        <v>-377.47320000000002</v>
+        <v>-377.47340000000003</v>
       </c>
       <c r="H17" s="7">
         <v>202205</v>
@@ -10159,7 +9648,7 @@
         <v>115</v>
       </c>
       <c r="G18" s="8">
-        <v>-377.47320000000002</v>
+        <v>-377.47340000000003</v>
       </c>
       <c r="H18" s="7">
         <v>202205</v>
@@ -10182,589 +9671,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E58B1-D977-4AB2-8F0A-647A07442DE7}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="7" width="21.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="23.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
-        <v>20220131</v>
-      </c>
-      <c r="B3" s="20">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="20">
-        <v>20220131</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="21">
-        <v>1714.0900000000001</v>
-      </c>
-      <c r="H3" s="20">
-        <v>202201</v>
-      </c>
-      <c r="I3" s="20">
-        <v>202201</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
-        <v>20220131</v>
-      </c>
-      <c r="B4" s="20">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="20">
-        <v>20220131</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="21">
-        <v>-237.96500000000003</v>
-      </c>
-      <c r="H4" s="20">
-        <v>202201</v>
-      </c>
-      <c r="I4" s="20">
-        <v>202201</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
-        <v>20220131</v>
-      </c>
-      <c r="B5" s="20">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="20">
-        <v>20220131</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="21">
-        <v>-1357.143</v>
-      </c>
-      <c r="H5" s="20">
-        <v>202201</v>
-      </c>
-      <c r="I5" s="20">
-        <v>202201</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
-        <v>20220131</v>
-      </c>
-      <c r="B6" s="20">
-        <v>4</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="20">
-        <v>20220131</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="21">
-        <v>-118.98250000000002</v>
-      </c>
-      <c r="H6" s="20">
-        <v>202201</v>
-      </c>
-      <c r="I6" s="20">
-        <v>202201</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
-        <v>20220228</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="20">
-        <v>20220228</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="21">
-        <v>9500</v>
-      </c>
-      <c r="H7" s="20">
-        <v>202202</v>
-      </c>
-      <c r="I7" s="20">
-        <v>202202</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
-        <v>20220228</v>
-      </c>
-      <c r="B8" s="20">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="20">
-        <v>20220228</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="21">
-        <v>-1714.0900000000001</v>
-      </c>
-      <c r="H8" s="20">
-        <v>202202</v>
-      </c>
-      <c r="I8" s="20">
-        <v>202202</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
-        <v>20220228</v>
-      </c>
-      <c r="B9" s="20">
-        <v>2</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="20">
-        <v>20220228</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="21">
-        <v>-416.43799999999999</v>
-      </c>
-      <c r="H9" s="20">
-        <v>202202</v>
-      </c>
-      <c r="I9" s="20">
-        <v>202202</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
-        <v>20220228</v>
-      </c>
-      <c r="B10" s="20">
-        <v>4</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="20">
-        <v>20220228</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="21">
-        <v>-208.21899999999999</v>
-      </c>
-      <c r="H10" s="20">
-        <v>202202</v>
-      </c>
-      <c r="I10" s="20">
-        <v>202202</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
-        <v>20220331</v>
-      </c>
-      <c r="B11" s="20">
-        <v>2</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="20">
-        <v>20220331</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="21">
-        <v>-461.05700000000002</v>
-      </c>
-      <c r="H11" s="20">
-        <v>202203</v>
-      </c>
-      <c r="I11" s="20">
-        <v>202203</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
-        <v>20220331</v>
-      </c>
-      <c r="B12" s="20">
-        <v>4</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="20">
-        <v>20220331</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="21">
-        <v>-230.52850000000001</v>
-      </c>
-      <c r="H12" s="20">
-        <v>202203</v>
-      </c>
-      <c r="I12" s="20">
-        <v>202203</v>
-      </c>
-      <c r="J12" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
-        <v>20220430</v>
-      </c>
-      <c r="B13" s="20">
-        <v>2</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="20">
-        <v>20220430</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="21">
-        <v>-482.71349999999995</v>
-      </c>
-      <c r="H13" s="20">
-        <v>202204</v>
-      </c>
-      <c r="I13" s="20">
-        <v>202204</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
-        <v>20220430</v>
-      </c>
-      <c r="B14" s="20">
-        <v>3</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="20">
-        <v>20220430</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="21">
-        <v>-31.745999999999999</v>
-      </c>
-      <c r="H14" s="20">
-        <v>202204</v>
-      </c>
-      <c r="I14" s="20">
-        <v>202204</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
-        <v>20220430</v>
-      </c>
-      <c r="B15" s="20">
-        <v>4</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="20">
-        <v>20220430</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="21">
-        <v>-1040.4434999999999</v>
-      </c>
-      <c r="H15" s="20">
-        <v>202204</v>
-      </c>
-      <c r="I15" s="20">
-        <v>202204</v>
-      </c>
-      <c r="J15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
-        <v>20220531</v>
-      </c>
-      <c r="B16" s="20">
-        <v>0</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="20">
-        <v>20220531</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="22">
-        <v>3000</v>
-      </c>
-      <c r="H16" s="20">
-        <v>202205</v>
-      </c>
-      <c r="I16" s="20">
-        <v>202205</v>
-      </c>
-      <c r="J16" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
-        <v>20220531</v>
-      </c>
-      <c r="B17" s="20">
-        <v>2</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="20">
-        <v>20220531</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="21">
-        <v>-471.8415</v>
-      </c>
-      <c r="H17" s="20">
-        <v>202205</v>
-      </c>
-      <c r="I17" s="20">
-        <v>202205</v>
-      </c>
-      <c r="J17" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
-        <v>20220531</v>
-      </c>
-      <c r="B18" s="20">
-        <v>4</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="20">
-        <v>20220531</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="21">
-        <v>-471.8415</v>
-      </c>
-      <c r="H18" s="20">
-        <v>202205</v>
-      </c>
-      <c r="I18" s="20">
-        <v>202205</v>
-      </c>
-      <c r="J18" s="20">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10781,7 +9691,7 @@
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>118</v>
       </c>
     </row>
@@ -11836,13 +10746,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34588549-56FF-43EB-B90E-4517E17BB2B8}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11859,7 +10767,7 @@
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>119</v>
       </c>
     </row>
@@ -11903,10 +10811,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="10">
-        <v>685.63600000000008</v>
+        <v>685.63599999999997</v>
       </c>
       <c r="G3" s="1">
-        <v>685.63600000000008</v>
+        <v>685.63599999999997</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11926,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="10">
-        <v>685.63600000000008</v>
+        <v>685.63599999999997</v>
       </c>
       <c r="G4" s="1">
-        <v>685.63600000000008</v>
+        <v>685.63599999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11949,10 +10857,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="10">
-        <v>-95.186000000000007</v>
+        <v>-95.185900000000004</v>
       </c>
       <c r="G5" s="1">
-        <v>-95.186000000000007</v>
+        <v>-95.185900000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11972,10 +10880,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>-95.186000000000007</v>
+        <v>-95.185900000000004</v>
       </c>
       <c r="G6" s="1">
-        <v>-95.186000000000007</v>
+        <v>-95.185900000000004</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11995,10 +10903,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="10">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
       <c r="G7" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12018,10 +10926,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="10">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
       <c r="G8" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12153,13 +11061,13 @@
         <v>113</v>
       </c>
       <c r="E14" s="1">
-        <v>-95.186000000000007</v>
+        <v>-95.185900000000004</v>
       </c>
       <c r="F14" s="1">
-        <v>-166.5752</v>
+        <v>-166.5754</v>
       </c>
       <c r="G14" s="1">
-        <v>-261.76120000000003</v>
+        <v>-261.76130000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12176,13 +11084,13 @@
         <v>113</v>
       </c>
       <c r="E15" s="1">
-        <v>-95.186000000000007</v>
+        <v>-95.185900000000004</v>
       </c>
       <c r="F15" s="1">
-        <v>-166.5752</v>
+        <v>-166.5754</v>
       </c>
       <c r="G15" s="1">
-        <v>-261.76120000000003</v>
+        <v>-261.76130000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12199,13 +11107,13 @@
         <v>113</v>
       </c>
       <c r="E16" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12222,13 +11130,13 @@
         <v>113</v>
       </c>
       <c r="E17" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12251,7 +11159,7 @@
         <v>-83.287599999999998</v>
       </c>
       <c r="G18" s="1">
-        <v>-130.88060000000002</v>
+        <v>-130.88059999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12274,7 +11182,7 @@
         <v>-83.287599999999998</v>
       </c>
       <c r="G19" s="1">
-        <v>-130.88060000000002</v>
+        <v>-130.88059999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12360,13 +11268,13 @@
         <v>113</v>
       </c>
       <c r="E23" s="1">
-        <v>-261.76119999999997</v>
+        <v>-261.76130000000001</v>
       </c>
       <c r="F23" s="1">
-        <v>-184.4228</v>
+        <v>-184.42269999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>-446.18399999999997</v>
+        <v>-446.18400000000003</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12383,13 +11291,13 @@
         <v>113</v>
       </c>
       <c r="E24" s="1">
-        <v>-261.76119999999997</v>
+        <v>-261.76130000000001</v>
       </c>
       <c r="F24" s="1">
-        <v>-184.4228</v>
+        <v>-184.42269999999999</v>
       </c>
       <c r="G24" s="1">
-        <v>-446.18399999999997</v>
+        <v>-446.18400000000003</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12406,13 +11314,13 @@
         <v>113</v>
       </c>
       <c r="E25" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12429,13 +11337,13 @@
         <v>113</v>
       </c>
       <c r="E26" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12458,7 +11366,7 @@
         <v>-92.211399999999998</v>
       </c>
       <c r="G27" s="1">
-        <v>-223.09199999999998</v>
+        <v>-223.09200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12481,7 +11389,7 @@
         <v>-92.211399999999998</v>
       </c>
       <c r="G28" s="1">
-        <v>-223.09199999999998</v>
+        <v>-223.09200000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12613,10 +11521,10 @@
         <v>113</v>
       </c>
       <c r="E34" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
       <c r="F34" s="1">
-        <v>-12.698399999999999</v>
+        <v>-12.698499999999999</v>
       </c>
       <c r="G34" s="1">
         <v>-555.55560000000003</v>
@@ -12636,10 +11544,10 @@
         <v>113</v>
       </c>
       <c r="E35" s="1">
-        <v>-542.85720000000003</v>
+        <v>-542.85709999999995</v>
       </c>
       <c r="F35" s="1">
-        <v>-12.698399999999999</v>
+        <v>-12.698499999999999</v>
       </c>
       <c r="G35" s="1">
         <v>-555.55560000000003</v>
@@ -12777,10 +11685,10 @@
         <v>-639.26940000000002</v>
       </c>
       <c r="F41" s="1">
-        <v>-188.73660000000001</v>
+        <v>-188.73670000000001</v>
       </c>
       <c r="G41" s="1">
-        <v>-828.00600000000009</v>
+        <v>-828.00609999999995</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12800,10 +11708,10 @@
         <v>-639.26940000000002</v>
       </c>
       <c r="F42" s="1">
-        <v>-188.73660000000001</v>
+        <v>-188.73670000000001</v>
       </c>
       <c r="G42" s="1">
-        <v>-828.00600000000009</v>
+        <v>-828.00609999999995</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12869,10 +11777,10 @@
         <v>-639.26940000000002</v>
       </c>
       <c r="F45" s="1">
-        <v>-188.73660000000001</v>
+        <v>-188.73670000000001</v>
       </c>
       <c r="G45" s="1">
-        <v>-828.00600000000009</v>
+        <v>-828.00609999999995</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12892,10 +11800,10 @@
         <v>-639.26940000000002</v>
       </c>
       <c r="F46" s="1">
-        <v>-188.73660000000001</v>
+        <v>-188.73670000000001</v>
       </c>
       <c r="G46" s="1">
-        <v>-828.00600000000009</v>
+        <v>-828.00609999999995</v>
       </c>
     </row>
   </sheetData>
@@ -12908,13 +11816,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D72872-8468-468C-B74A-7BE61849517B}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12931,7 +11837,7 @@
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12975,10 +11881,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="10">
-        <v>1028.4540000000002</v>
+        <v>1028.454</v>
       </c>
       <c r="G3" s="1">
-        <v>1028.4540000000002</v>
+        <v>1028.454</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12998,10 +11904,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="10">
-        <v>1028.4540000000002</v>
+        <v>1028.454</v>
       </c>
       <c r="G4" s="1">
-        <v>1028.4540000000002</v>
+        <v>1028.454</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13021,10 +11927,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="10">
-        <v>-142.779</v>
+        <v>-142.77889999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>-142.779</v>
+        <v>-142.77889999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13044,10 +11950,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>-142.779</v>
+        <v>-142.77889999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>-142.779</v>
+        <v>-142.77889999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13067,10 +11973,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="10">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
       <c r="G7" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13090,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="10">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
       <c r="G8" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13113,10 +12019,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="10">
-        <v>-71.389499999999998</v>
+        <v>-71.389399999999995</v>
       </c>
       <c r="G9" s="1">
-        <v>-71.389499999999998</v>
+        <v>-71.389399999999995</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13136,10 +12042,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="10">
-        <v>-71.389499999999998</v>
+        <v>-71.389399999999995</v>
       </c>
       <c r="G10" s="1">
-        <v>-71.389499999999998</v>
+        <v>-71.389399999999995</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13225,13 +12131,13 @@
         <v>114</v>
       </c>
       <c r="E14" s="1">
-        <v>-142.779</v>
+        <v>-142.77889999999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-249.86279999999999</v>
+        <v>-249.863</v>
       </c>
       <c r="G14" s="1">
-        <v>-392.64180000000005</v>
+        <v>-392.64190000000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13248,13 +12154,13 @@
         <v>114</v>
       </c>
       <c r="E15" s="1">
-        <v>-142.779</v>
+        <v>-142.77889999999999</v>
       </c>
       <c r="F15" s="1">
-        <v>-249.86279999999999</v>
+        <v>-249.863</v>
       </c>
       <c r="G15" s="1">
-        <v>-392.64180000000005</v>
+        <v>-392.64190000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13271,13 +12177,13 @@
         <v>114</v>
       </c>
       <c r="E16" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13294,13 +12200,13 @@
         <v>114</v>
       </c>
       <c r="E17" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13317,13 +12223,13 @@
         <v>114</v>
       </c>
       <c r="E18" s="1">
-        <v>-71.389499999999998</v>
+        <v>-71.389399999999995</v>
       </c>
       <c r="F18" s="1">
-        <v>-124.9314</v>
+        <v>-124.9315</v>
       </c>
       <c r="G18" s="1">
-        <v>-196.32090000000002</v>
+        <v>-196.32089999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13340,13 +12246,13 @@
         <v>114</v>
       </c>
       <c r="E19" s="1">
-        <v>-71.389499999999998</v>
+        <v>-71.389399999999995</v>
       </c>
       <c r="F19" s="1">
-        <v>-124.9314</v>
+        <v>-124.9315</v>
       </c>
       <c r="G19" s="1">
-        <v>-196.32090000000002</v>
+        <v>-196.32089999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13432,13 +12338,13 @@
         <v>114</v>
       </c>
       <c r="E23" s="1">
-        <v>-392.64179999999999</v>
+        <v>-392.64190000000002</v>
       </c>
       <c r="F23" s="1">
-        <v>-276.63419999999996</v>
+        <v>-276.63400000000001</v>
       </c>
       <c r="G23" s="1">
-        <v>-669.27599999999995</v>
+        <v>-669.27589999999998</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13455,13 +12361,13 @@
         <v>114</v>
       </c>
       <c r="E24" s="1">
-        <v>-392.64179999999999</v>
+        <v>-392.64190000000002</v>
       </c>
       <c r="F24" s="1">
-        <v>-276.63419999999996</v>
+        <v>-276.63400000000001</v>
       </c>
       <c r="G24" s="1">
-        <v>-669.27599999999995</v>
+        <v>-669.27589999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13478,13 +12384,13 @@
         <v>114</v>
       </c>
       <c r="E25" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13501,13 +12407,13 @@
         <v>114</v>
       </c>
       <c r="E26" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13527,7 +12433,7 @@
         <v>-196.32089999999999</v>
       </c>
       <c r="F27" s="1">
-        <v>-138.31709999999998</v>
+        <v>-138.31710000000001</v>
       </c>
       <c r="G27" s="1">
         <v>-334.63799999999998</v>
@@ -13550,7 +12456,7 @@
         <v>-196.32089999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>-138.31709999999998</v>
+        <v>-138.31710000000001</v>
       </c>
       <c r="G28" s="1">
         <v>-334.63799999999998</v>
@@ -13639,10 +12545,10 @@
         <v>114</v>
       </c>
       <c r="E32" s="1">
-        <v>-669.27600000000007</v>
+        <v>-669.27589999999998</v>
       </c>
       <c r="F32" s="1">
-        <v>-289.62810000000002</v>
+        <v>-289.62819999999999</v>
       </c>
       <c r="G32" s="1">
         <v>-958.90409999999997</v>
@@ -13662,10 +12568,10 @@
         <v>114</v>
       </c>
       <c r="E33" s="1">
-        <v>-669.27600000000007</v>
+        <v>-669.27589999999998</v>
       </c>
       <c r="F33" s="1">
-        <v>-289.62810000000002</v>
+        <v>-289.62819999999999</v>
       </c>
       <c r="G33" s="1">
         <v>-958.90409999999997</v>
@@ -13685,13 +12591,13 @@
         <v>114</v>
       </c>
       <c r="E34" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
       <c r="F34" s="1">
         <v>-19.047599999999999</v>
       </c>
       <c r="G34" s="1">
-        <v>-833.33339999999998</v>
+        <v>-833.33330000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13708,13 +12614,13 @@
         <v>114</v>
       </c>
       <c r="E35" s="1">
-        <v>-814.28580000000011</v>
+        <v>-814.28570000000002</v>
       </c>
       <c r="F35" s="1">
         <v>-19.047599999999999</v>
       </c>
       <c r="G35" s="1">
-        <v>-833.33339999999998</v>
+        <v>-833.33330000000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13731,10 +12637,10 @@
         <v>114</v>
       </c>
       <c r="E36" s="1">
-        <v>-334.63800000000003</v>
+        <v>-334.63799999999998</v>
       </c>
       <c r="F36" s="1">
-        <v>-624.26609999999994</v>
+        <v>-624.26610000000005</v>
       </c>
       <c r="G36" s="1">
         <v>-958.90409999999997</v>
@@ -13754,10 +12660,10 @@
         <v>114</v>
       </c>
       <c r="E37" s="1">
-        <v>-334.63800000000003</v>
+        <v>-334.63799999999998</v>
       </c>
       <c r="F37" s="1">
-        <v>-624.26609999999994</v>
+        <v>-624.26610000000005</v>
       </c>
       <c r="G37" s="1">
         <v>-958.90409999999997</v>
@@ -13849,10 +12755,10 @@
         <v>-958.90409999999997</v>
       </c>
       <c r="F41" s="1">
-        <v>-283.10490000000004</v>
+        <v>-283.10500000000002</v>
       </c>
       <c r="G41" s="1">
-        <v>-1242.009</v>
+        <v>-1242.0091</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13872,10 +12778,10 @@
         <v>-958.90409999999997</v>
       </c>
       <c r="F42" s="1">
-        <v>-283.10490000000004</v>
+        <v>-283.10500000000002</v>
       </c>
       <c r="G42" s="1">
-        <v>-1242.009</v>
+        <v>-1242.0091</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13892,13 +12798,13 @@
         <v>114</v>
       </c>
       <c r="E43" s="1">
-        <v>-833.33339999999998</v>
+        <v>-833.33330000000001</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>-833.33339999999998</v>
+        <v>-833.33330000000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13915,13 +12821,13 @@
         <v>114</v>
       </c>
       <c r="E44" s="1">
-        <v>-833.33339999999998</v>
+        <v>-833.33330000000001</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>-833.33339999999998</v>
+        <v>-833.33330000000001</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13941,10 +12847,10 @@
         <v>-958.90409999999997</v>
       </c>
       <c r="F45" s="1">
-        <v>-283.10490000000004</v>
+        <v>-283.10500000000002</v>
       </c>
       <c r="G45" s="1">
-        <v>-1242.009</v>
+        <v>-1242.0091</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13964,10 +12870,1080 @@
         <v>-958.90409999999997</v>
       </c>
       <c r="F46" s="1">
-        <v>-283.10490000000004</v>
+        <v>-283.10500000000002</v>
       </c>
       <c r="G46" s="1">
-        <v>-1242.009</v>
+        <v>-1242.0091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFFFE97-1003-49F3-83E2-C95E2F61DA0C}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1371.2719999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1371.2719999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1371.2719999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1371.2719999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-190.37180000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-190.37180000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-190.37180000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-190.37180000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-1085.7143000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-1085.7143000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-95.185900000000004</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-95.185900000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>20220131</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-95.185900000000004</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-95.185900000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>7600</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1371.2719999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6228.7280000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1371.2719999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1371.2719999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-190.37180000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-333.15069999999997</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-523.52250000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-190.37180000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-333.15069999999997</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-523.52250000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-95.185900000000004</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-166.5754</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-261.76130000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>20220228</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-95.185900000000004</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-166.5754</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-261.76130000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7600</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7600</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-523.52250000000004</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-368.84539999999998</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-892.36789999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-523.52250000000004</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-368.84539999999998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-892.36789999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-261.76130000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-184.42269999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-446.18400000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>20220331</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-261.76130000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-184.42269999999999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-446.18400000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7600</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7600</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-892.36789999999996</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-386.17090000000002</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1278.5388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-892.36789999999996</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-386.17090000000002</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1278.5388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-25.396799999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1111.1111000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-1085.7143000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-25.396799999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-1111.1111000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-446.18400000000003</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-832.35479999999995</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-1278.5388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>20220430</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-446.18400000000003</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-832.35479999999995</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-1278.5388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7600</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7600</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-1278.5388</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-377.47340000000003</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-1656.0121999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-1278.5388</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-377.47340000000003</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-1656.0121999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-1111.1111000000001</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-1111.1111000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-1111.1111000000001</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-1111.1111000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-1278.5388</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-377.47340000000003</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-1656.0121999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>20220531</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-1278.5388</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-377.47340000000003</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-1656.0121999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestRevenue (1)\TestRevenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CBF98-AE28-4F0D-87E3-52170DB502D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F406688-4E57-4456-8A38-4AA54D9A65BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -629,21 +629,21 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2762,7 +2762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E58B1-D977-4AB2-8F0A-647A07442DE7}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2831,7 +2833,7 @@
         <v>116</v>
       </c>
       <c r="G3" s="21">
-        <v>1714.0900000000001</v>
+        <v>1714.09</v>
       </c>
       <c r="H3" s="20">
         <v>202201</v>
@@ -2863,7 +2865,7 @@
         <v>116</v>
       </c>
       <c r="G4" s="21">
-        <v>-237.96500000000003</v>
+        <v>-237.9648</v>
       </c>
       <c r="H4" s="20">
         <v>202201</v>
@@ -2895,7 +2897,7 @@
         <v>116</v>
       </c>
       <c r="G5" s="21">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
       <c r="H5" s="20">
         <v>202201</v>
@@ -2927,7 +2929,7 @@
         <v>116</v>
       </c>
       <c r="G6" s="21">
-        <v>-118.98250000000002</v>
+        <v>-118.9824</v>
       </c>
       <c r="H6" s="20">
         <v>202201</v>
@@ -2991,7 +2993,7 @@
         <v>116</v>
       </c>
       <c r="G8" s="21">
-        <v>-1714.0900000000001</v>
+        <v>-1714.09</v>
       </c>
       <c r="H8" s="20">
         <v>202202</v>
@@ -3023,7 +3025,7 @@
         <v>116</v>
       </c>
       <c r="G9" s="21">
-        <v>-416.43799999999999</v>
+        <v>-416.43830000000003</v>
       </c>
       <c r="H9" s="20">
         <v>202202</v>
@@ -3055,7 +3057,7 @@
         <v>116</v>
       </c>
       <c r="G10" s="21">
-        <v>-208.21899999999999</v>
+        <v>-208.2192</v>
       </c>
       <c r="H10" s="20">
         <v>202202</v>
@@ -3087,7 +3089,7 @@
         <v>116</v>
       </c>
       <c r="G11" s="21">
-        <v>-461.05700000000002</v>
+        <v>-461.05680000000001</v>
       </c>
       <c r="H11" s="20">
         <v>202203</v>
@@ -3119,7 +3121,7 @@
         <v>116</v>
       </c>
       <c r="G12" s="21">
-        <v>-230.52850000000001</v>
+        <v>-230.5283</v>
       </c>
       <c r="H12" s="20">
         <v>202203</v>
@@ -3151,7 +3153,7 @@
         <v>116</v>
       </c>
       <c r="G13" s="21">
-        <v>-482.71349999999995</v>
+        <v>-482.71359999999999</v>
       </c>
       <c r="H13" s="20">
         <v>202204</v>
@@ -3215,7 +3217,7 @@
         <v>116</v>
       </c>
       <c r="G15" s="21">
-        <v>-1040.4434999999999</v>
+        <v>-1040.4436000000001</v>
       </c>
       <c r="H15" s="20">
         <v>202204</v>
@@ -3279,7 +3281,7 @@
         <v>116</v>
       </c>
       <c r="G17" s="21">
-        <v>-471.8415</v>
+        <v>-471.8417</v>
       </c>
       <c r="H17" s="20">
         <v>202205</v>
@@ -3311,7 +3313,7 @@
         <v>116</v>
       </c>
       <c r="G18" s="21">
-        <v>-471.8415</v>
+        <v>-471.8417</v>
       </c>
       <c r="H18" s="20">
         <v>202205</v>
@@ -3337,7 +3339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E433FD4-1CD7-4287-A08F-AE9EDE2DEA08}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3398,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="10">
-        <v>1714.0900000000001</v>
+        <v>1714.09</v>
       </c>
       <c r="G3" s="1">
-        <v>1714.0900000000001</v>
+        <v>1714.09</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3421,10 +3425,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="10">
-        <v>1714.0900000000001</v>
+        <v>1714.09</v>
       </c>
       <c r="G4" s="1">
-        <v>1714.0900000000001</v>
+        <v>1714.09</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3444,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="10">
-        <v>-237.96500000000003</v>
+        <v>-237.9648</v>
       </c>
       <c r="G5" s="1">
-        <v>-237.96500000000003</v>
+        <v>-237.9648</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3467,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>-237.96500000000003</v>
+        <v>-237.9648</v>
       </c>
       <c r="G6" s="1">
-        <v>-237.96500000000003</v>
+        <v>-237.9648</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3490,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="10">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3513,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="10">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3536,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="10">
-        <v>-118.98250000000002</v>
+        <v>-118.9824</v>
       </c>
       <c r="G9" s="1">
-        <v>-118.98250000000002</v>
+        <v>-118.9824</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3559,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="10">
-        <v>-118.98250000000002</v>
+        <v>-118.9824</v>
       </c>
       <c r="G10" s="1">
-        <v>-118.98250000000002</v>
+        <v>-118.9824</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3648,13 +3652,13 @@
         <v>116</v>
       </c>
       <c r="E14" s="1">
-        <v>-237.96500000000003</v>
+        <v>-237.9648</v>
       </c>
       <c r="F14" s="1">
-        <v>-416.43799999999999</v>
+        <v>-416.43830000000003</v>
       </c>
       <c r="G14" s="1">
-        <v>-654.40300000000002</v>
+        <v>-654.40309999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3671,13 +3675,13 @@
         <v>116</v>
       </c>
       <c r="E15" s="1">
-        <v>-237.96500000000003</v>
+        <v>-237.9648</v>
       </c>
       <c r="F15" s="1">
-        <v>-416.43799999999999</v>
+        <v>-416.43830000000003</v>
       </c>
       <c r="G15" s="1">
-        <v>-654.40300000000002</v>
+        <v>-654.40309999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3694,13 +3698,13 @@
         <v>116</v>
       </c>
       <c r="E16" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3717,13 +3721,13 @@
         <v>116</v>
       </c>
       <c r="E17" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3740,13 +3744,13 @@
         <v>116</v>
       </c>
       <c r="E18" s="1">
-        <v>-118.98250000000002</v>
+        <v>-118.9824</v>
       </c>
       <c r="F18" s="1">
-        <v>-208.21899999999999</v>
+        <v>-208.2192</v>
       </c>
       <c r="G18" s="1">
-        <v>-327.20150000000001</v>
+        <v>-327.20159999999998</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3763,13 +3767,13 @@
         <v>116</v>
       </c>
       <c r="E19" s="1">
-        <v>-118.98250000000002</v>
+        <v>-118.9824</v>
       </c>
       <c r="F19" s="1">
-        <v>-208.21899999999999</v>
+        <v>-208.2192</v>
       </c>
       <c r="G19" s="1">
-        <v>-327.20150000000001</v>
+        <v>-327.20159999999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,13 +3859,13 @@
         <v>116</v>
       </c>
       <c r="E23" s="1">
-        <v>-654.40299999999991</v>
+        <v>-654.40309999999999</v>
       </c>
       <c r="F23" s="1">
-        <v>-461.05700000000002</v>
+        <v>-461.05680000000001</v>
       </c>
       <c r="G23" s="1">
-        <v>-1115.46</v>
+        <v>-1115.4599000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3878,13 +3882,13 @@
         <v>116</v>
       </c>
       <c r="E24" s="1">
-        <v>-654.40299999999991</v>
+        <v>-654.40309999999999</v>
       </c>
       <c r="F24" s="1">
-        <v>-461.05700000000002</v>
+        <v>-461.05680000000001</v>
       </c>
       <c r="G24" s="1">
-        <v>-1115.46</v>
+        <v>-1115.4599000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3901,13 +3905,13 @@
         <v>116</v>
       </c>
       <c r="E25" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3924,13 +3928,13 @@
         <v>116</v>
       </c>
       <c r="E26" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3947,13 +3951,13 @@
         <v>116</v>
       </c>
       <c r="E27" s="1">
-        <v>-327.20149999999995</v>
+        <v>-327.20159999999998</v>
       </c>
       <c r="F27" s="1">
-        <v>-230.52850000000001</v>
+        <v>-230.5283</v>
       </c>
       <c r="G27" s="1">
-        <v>-557.73</v>
+        <v>-557.72990000000004</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3970,13 +3974,13 @@
         <v>116</v>
       </c>
       <c r="E28" s="1">
-        <v>-327.20149999999995</v>
+        <v>-327.20159999999998</v>
       </c>
       <c r="F28" s="1">
-        <v>-230.52850000000001</v>
+        <v>-230.5283</v>
       </c>
       <c r="G28" s="1">
-        <v>-557.73</v>
+        <v>-557.72990000000004</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4062,10 +4066,10 @@
         <v>116</v>
       </c>
       <c r="E32" s="1">
-        <v>-1115.46</v>
+        <v>-1115.4599000000001</v>
       </c>
       <c r="F32" s="1">
-        <v>-482.71349999999995</v>
+        <v>-482.71359999999999</v>
       </c>
       <c r="G32" s="1">
         <v>-1598.1735000000001</v>
@@ -4085,10 +4089,10 @@
         <v>116</v>
       </c>
       <c r="E33" s="1">
-        <v>-1115.46</v>
+        <v>-1115.4599000000001</v>
       </c>
       <c r="F33" s="1">
-        <v>-482.71349999999995</v>
+        <v>-482.71359999999999</v>
       </c>
       <c r="G33" s="1">
         <v>-1598.1735000000001</v>
@@ -4108,13 +4112,13 @@
         <v>116</v>
       </c>
       <c r="E34" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
       <c r="F34" s="1">
         <v>-31.745999999999999</v>
       </c>
       <c r="G34" s="1">
-        <v>-1388.8890000000001</v>
+        <v>-1388.8888999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4131,13 +4135,13 @@
         <v>116</v>
       </c>
       <c r="E35" s="1">
-        <v>-1357.143</v>
+        <v>-1357.1429000000001</v>
       </c>
       <c r="F35" s="1">
         <v>-31.745999999999999</v>
       </c>
       <c r="G35" s="1">
-        <v>-1388.8890000000001</v>
+        <v>-1388.8888999999999</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4154,10 +4158,10 @@
         <v>116</v>
       </c>
       <c r="E36" s="1">
-        <v>-557.73</v>
+        <v>-557.72990000000004</v>
       </c>
       <c r="F36" s="1">
-        <v>-1040.4434999999999</v>
+        <v>-1040.4436000000001</v>
       </c>
       <c r="G36" s="1">
         <v>-1598.1735000000001</v>
@@ -4177,10 +4181,10 @@
         <v>116</v>
       </c>
       <c r="E37" s="1">
-        <v>-557.73</v>
+        <v>-557.72990000000004</v>
       </c>
       <c r="F37" s="1">
-        <v>-1040.4434999999999</v>
+        <v>-1040.4436000000001</v>
       </c>
       <c r="G37" s="1">
         <v>-1598.1735000000001</v>
@@ -4272,10 +4276,10 @@
         <v>-1598.1735000000001</v>
       </c>
       <c r="F41" s="1">
-        <v>-471.8415</v>
+        <v>-471.8417</v>
       </c>
       <c r="G41" s="1">
-        <v>-2070.0150000000003</v>
+        <v>-2070.0151999999998</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4295,10 +4299,10 @@
         <v>-1598.1735000000001</v>
       </c>
       <c r="F42" s="1">
-        <v>-471.8415</v>
+        <v>-471.8417</v>
       </c>
       <c r="G42" s="1">
-        <v>-2070.0150000000003</v>
+        <v>-2070.0151999999998</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4315,13 +4319,13 @@
         <v>116</v>
       </c>
       <c r="E43" s="1">
-        <v>-1388.8890000000001</v>
+        <v>-1388.8888999999999</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>-1388.8890000000001</v>
+        <v>-1388.8888999999999</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4338,13 +4342,13 @@
         <v>116</v>
       </c>
       <c r="E44" s="1">
-        <v>-1388.8890000000001</v>
+        <v>-1388.8888999999999</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>-1388.8890000000001</v>
+        <v>-1388.8888999999999</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4364,10 +4368,10 @@
         <v>-1598.1735000000001</v>
       </c>
       <c r="F45" s="1">
-        <v>-471.8415</v>
+        <v>-471.8417</v>
       </c>
       <c r="G45" s="1">
-        <v>-2070.0150000000003</v>
+        <v>-2070.0151999999998</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4387,10 +4391,10 @@
         <v>-1598.1735000000001</v>
       </c>
       <c r="F46" s="1">
-        <v>-471.8415</v>
+        <v>-471.8417</v>
       </c>
       <c r="G46" s="1">
-        <v>-2070.0150000000003</v>
+        <v>-2070.0151999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4457,13 +4461,13 @@
         <v>116</v>
       </c>
       <c r="D3" s="23">
-        <v>-5.0000000004501999E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="E3" s="23">
         <v>0</v>
       </c>
       <c r="F3" s="23">
-        <v>-5.0000000004501999E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4477,13 +4481,13 @@
         <v>116</v>
       </c>
       <c r="D4" s="23">
-        <v>-1714.0905000000002</v>
+        <v>-1714.0900999999999</v>
       </c>
       <c r="E4" s="23">
         <v>0</v>
       </c>
       <c r="F4" s="23">
-        <v>-1714.0905000000002</v>
+        <v>-1714.0900999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4497,13 +4501,13 @@
         <v>116</v>
       </c>
       <c r="D5" s="23">
-        <v>1714.0900000000001</v>
+        <v>1714.09</v>
       </c>
       <c r="E5" s="23">
         <v>0</v>
       </c>
       <c r="F5" s="23">
-        <v>1714.0900000000001</v>
+        <v>1714.09</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4537,13 +4541,13 @@
         <v>116</v>
       </c>
       <c r="D7" s="23">
-        <v>7161.2529999999997</v>
+        <v>7161.2524999999996</v>
       </c>
       <c r="E7" s="23">
-        <v>-5.0000000004501999E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="F7" s="23">
-        <v>7161.2524999999996</v>
+        <v>7161.2524000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4557,13 +4561,13 @@
         <v>116</v>
       </c>
       <c r="D8" s="23">
-        <v>-624.65699999999993</v>
+        <v>-624.65750000000003</v>
       </c>
       <c r="E8" s="23">
-        <v>-1714.0905000000002</v>
+        <v>-1714.0900999999999</v>
       </c>
       <c r="F8" s="23">
-        <v>-2338.7474999999999</v>
+        <v>-2338.7476000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4617,13 +4621,13 @@
         <v>116</v>
       </c>
       <c r="D11" s="23">
-        <v>-691.58550000000002</v>
+        <v>-691.58510000000001</v>
       </c>
       <c r="E11" s="23">
-        <v>7161.2524999999996</v>
+        <v>7161.2524000000003</v>
       </c>
       <c r="F11" s="23">
-        <v>6469.6670000000013</v>
+        <v>6469.6673000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4637,13 +4641,13 @@
         <v>116</v>
       </c>
       <c r="D12" s="23">
-        <v>-691.58550000000002</v>
+        <v>-691.58510000000001</v>
       </c>
       <c r="E12" s="23">
-        <v>-2338.7474999999999</v>
+        <v>-2338.7476000000001</v>
       </c>
       <c r="F12" s="23">
-        <v>-3030.3330000000001</v>
+        <v>-3030.3326999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4697,13 +4701,13 @@
         <v>116</v>
       </c>
       <c r="D15" s="23">
-        <v>-1554.9029999999998</v>
+        <v>-1554.9032</v>
       </c>
       <c r="E15" s="23">
-        <v>6469.6670000000013</v>
+        <v>6469.6673000000001</v>
       </c>
       <c r="F15" s="23">
-        <v>4914.7640000000001</v>
+        <v>4914.7641000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4717,13 +4721,13 @@
         <v>116</v>
       </c>
       <c r="D16" s="23">
-        <v>-1554.9029999999998</v>
+        <v>-1554.9032</v>
       </c>
       <c r="E16" s="23">
-        <v>-3030.3330000000001</v>
+        <v>-3030.3326999999999</v>
       </c>
       <c r="F16" s="23">
-        <v>-4585.2359999999999</v>
+        <v>-4585.2358999999997</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4777,13 +4781,13 @@
         <v>116</v>
       </c>
       <c r="D19" s="23">
-        <v>2056.317</v>
+        <v>2056.3166000000001</v>
       </c>
       <c r="E19" s="23">
-        <v>4914.7640000000001</v>
+        <v>4914.7641000000003</v>
       </c>
       <c r="F19" s="23">
-        <v>6971.081000000001</v>
+        <v>6971.0807000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4797,13 +4801,13 @@
         <v>116</v>
       </c>
       <c r="D20" s="23">
-        <v>-943.68299999999999</v>
+        <v>-943.68340000000001</v>
       </c>
       <c r="E20" s="23">
-        <v>-4585.2359999999999</v>
+        <v>-4585.2358999999997</v>
       </c>
       <c r="F20" s="23">
-        <v>-5528.9190000000008</v>
+        <v>-5528.9192999999996</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4838,7 +4842,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -4848,8 +4852,6 @@
     <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
     <col min="4" max="5" width="24.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -4888,10 +4890,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>-1.4999999994245172E-3</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>-1.4999999994245172E-3</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4905,10 +4907,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>-5142.2715000000007</v>
+        <v>-5142.2701999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>-5142.2715000000007</v>
+        <v>-5142.2701999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4953,13 +4955,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="1">
-        <v>-1.5000000012435066E-3</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="D7" s="1">
-        <v>21483.759000000002</v>
+        <v>21483.7575</v>
       </c>
       <c r="E7" s="1">
-        <v>21483.7575</v>
+        <v>21483.757300000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4970,13 +4972,13 @@
         <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>-5142.2715000000007</v>
+        <v>-5142.2701999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-1873.9709999999998</v>
+        <v>-1873.9725000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>-7016.2425000000003</v>
+        <v>-7016.2426999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4987,10 +4989,10 @@
         <v>43</v>
       </c>
       <c r="C9" s="1">
-        <v>5142.2699999999995</v>
+        <v>5142.2700000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-5142.2699999999995</v>
+        <v>-5142.2700000000004</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -5021,13 +5023,13 @@
         <v>42</v>
       </c>
       <c r="C11" s="1">
-        <v>21483.7575</v>
+        <v>21483.757300000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-2074.7565</v>
+        <v>-2074.7555000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>19409.001</v>
+        <v>19409.001799999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5038,13 +5040,13 @@
         <v>34</v>
       </c>
       <c r="C12" s="1">
-        <v>-7016.2425000000003</v>
+        <v>-7016.2426999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-2074.7565</v>
+        <v>-2074.7555000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>-9090.9989999999998</v>
+        <v>-9090.9982</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5089,13 +5091,13 @@
         <v>42</v>
       </c>
       <c r="C15" s="1">
-        <v>19409.001</v>
+        <v>19409.001799999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-4664.7089999999998</v>
+        <v>-4664.7094999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>14744.292000000003</v>
+        <v>14744.292299999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5106,13 +5108,13 @@
         <v>34</v>
       </c>
       <c r="C16" s="1">
-        <v>-9090.9989999999998</v>
+        <v>-9090.9982</v>
       </c>
       <c r="D16" s="1">
-        <v>-4664.7089999999998</v>
+        <v>-4664.7094999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>-13755.708000000001</v>
+        <v>-13755.707700000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5157,13 +5159,13 @@
         <v>42</v>
       </c>
       <c r="C19" s="1">
-        <v>14744.292000000003</v>
+        <v>14744.292299999999</v>
       </c>
       <c r="D19" s="1">
-        <v>6168.9509999999973</v>
+        <v>6168.9498000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>20913.243000000006</v>
+        <v>20913.242099999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5174,13 +5176,13 @@
         <v>34</v>
       </c>
       <c r="C20" s="1">
-        <v>-13755.708000000001</v>
+        <v>-13755.707700000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-2831.049</v>
+        <v>-2831.0502000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>-16586.757000000001</v>
+        <v>-16586.757900000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5859,13 +5861,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5883,7 +5885,7 @@
       <c r="E2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="30" t="s">
         <v>84</v>
       </c>
       <c r="M2" s="12" t="s">
@@ -5921,7 +5923,7 @@
       <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="7" t="s">
         <v>93</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>96</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="L4" s="26"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="7" t="s">
         <v>93</v>
       </c>
@@ -6032,16 +6034,16 @@
       <c r="E8" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -6200,10 +6202,10 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="17">
         <f>SUM(C13:C17)</f>
         <v>1900</v>
@@ -6224,11 +6226,11 @@
       <c r="H18" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
@@ -6422,11 +6424,11 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
@@ -6620,33 +6622,33 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
     </row>
     <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -6754,16 +6756,16 @@
       <c r="E64" s="7"/>
     </row>
     <row r="67" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
     </row>
     <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
@@ -6922,10 +6924,10 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="28"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="17">
         <f>SUM(C69:C73)</f>
         <v>2500</v>
@@ -6946,11 +6948,11 @@
       <c r="H74" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="18" t="s">
@@ -7144,11 +7146,11 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
@@ -7343,6 +7345,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B38:D38"/>
@@ -7350,11 +7357,6 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A67:H67"/>
     <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7365,7 +7367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\TestRevenue (1)\TestRevenue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestRevenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F406688-4E57-4456-8A38-4AA54D9A65BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C6F7C0-AEB8-4A56-924D-CA4C710DB801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>FILE_UPLOAD</t>
   </si>
   <si>
-    <t>ReferenceData/Revenue_RefData.xlsx</t>
-  </si>
-  <si>
     <t>EVENT_CONFIGURATION</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>MODEL_UPLOAD</t>
   </si>
   <si>
-    <t>Model/Revenue_model_changed_V4.xlsx</t>
-  </si>
-  <si>
     <t>MODEL_CONFIGURATION</t>
   </si>
   <si>
@@ -116,22 +110,10 @@
     <t>ACTIVITY_UPLOAD</t>
   </si>
   <si>
-    <t>TestRevenue/ActivityData_Jan22.xlsx</t>
-  </si>
-  <si>
     <t>MODEL_EXECUTION</t>
   </si>
   <si>
     <t>EXECUTION</t>
-  </si>
-  <si>
-    <t>TestRevenue/ActivityData_Feb22.xlsx</t>
-  </si>
-  <si>
-    <t>TestRevenue/ActivityData_Apr22.xlsx</t>
-  </si>
-  <si>
-    <t>TestRevenue/ActivityData_May22.xlsx</t>
   </si>
   <si>
     <t>TransactionActivity</t>
@@ -442,6 +424,24 @@
   <si>
     <t>{"instrumentId": "SO5"}</t>
   </si>
+  <si>
+    <t>TestRevenue/ReferenceData/Revenue_RefData.xlsx</t>
+  </si>
+  <si>
+    <t>TestRevenue/Model/Revenue_model_changed_V4.xlsx</t>
+  </si>
+  <si>
+    <t>TestRevenue/ActivityData/ActivityData_Jan22.xlsx</t>
+  </si>
+  <si>
+    <t>TestRevenue/ActivityData/ActivityData_Feb22.xlsx</t>
+  </si>
+  <si>
+    <t>TestRevenue/ActivityData/ActivityData_Apr22.xlsx</t>
+  </si>
+  <si>
+    <t>TestRevenue/ActivityData/ActivityData_May22.xlsx</t>
+  </si>
 </sst>
 </file>
 
@@ -629,21 +629,21 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -874,59 +874,59 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>44592</v>
@@ -934,21 +934,21 @@
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>44620</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>44651</v>
@@ -967,21 +967,21 @@
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <v>44681</v>
@@ -989,21 +989,21 @@
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>44712</v>
@@ -1038,30 +1038,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1069,10 +1069,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3" s="23">
         <v>-9.9999999996214228E-5</v>
@@ -1089,10 +1089,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="23">
         <v>-342.81810000000002</v>
@@ -1109,10 +1109,10 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" s="23">
         <v>342.81800000000004</v>
@@ -1129,10 +1129,10 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" s="23">
         <v>1900</v>
@@ -1149,10 +1149,10 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" s="23">
         <v>1432.2506000000001</v>
@@ -1169,10 +1169,10 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" s="23">
         <v>-124.9314</v>
@@ -1189,10 +1189,10 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9" s="23">
         <v>-342.81799999999998</v>
@@ -1209,10 +1209,10 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="23">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="23">
         <v>-138.31709999999998</v>
@@ -1249,10 +1249,10 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="23">
         <v>-138.31709999999998</v>
@@ -1269,10 +1269,10 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" s="23">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D15" s="23">
         <v>-310.98059999999998</v>
@@ -1329,10 +1329,10 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D16" s="23">
         <v>-310.98059999999998</v>
@@ -1349,10 +1349,10 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" s="23">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D18" s="23">
         <v>600</v>
@@ -1389,10 +1389,10 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D19" s="23">
         <v>411.26340000000005</v>
@@ -1409,10 +1409,10 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D20" s="23">
         <v>-188.73660000000001</v>
@@ -1429,10 +1429,10 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
@@ -1476,30 +1476,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1507,10 +1507,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D4" s="23">
         <v>-685.63599999999997</v>
@@ -1547,10 +1547,10 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D5" s="23">
         <v>685.63599999999997</v>
@@ -1567,10 +1567,10 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D6" s="23">
         <v>3800</v>
@@ -1587,10 +1587,10 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D7" s="23">
         <v>2864.5010000000002</v>
@@ -1607,10 +1607,10 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D8" s="23">
         <v>-249.863</v>
@@ -1627,10 +1627,10 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D9" s="23">
         <v>-685.63599999999997</v>
@@ -1647,10 +1647,10 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D10" s="23">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D11" s="23">
         <v>-276.63409999999999</v>
@@ -1687,10 +1687,10 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D12" s="23">
         <v>-276.63409999999999</v>
@@ -1707,10 +1707,10 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D14" s="23">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D15" s="23">
         <v>-621.96130000000005</v>
@@ -1767,10 +1767,10 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D16" s="23">
         <v>-621.96130000000005</v>
@@ -1787,10 +1787,10 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D17" s="23">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D18" s="23">
         <v>1200</v>
@@ -1827,10 +1827,10 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D19" s="23">
         <v>822.52660000000003</v>
@@ -1847,10 +1847,10 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D20" s="23">
         <v>-377.47340000000003</v>
@@ -1867,10 +1867,10 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
@@ -1909,30 +1909,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1940,10 +1940,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
@@ -1960,10 +1960,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D4" s="23">
         <v>-1028.454</v>
@@ -1980,10 +1980,10 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D5" s="23">
         <v>1028.454</v>
@@ -2000,10 +2000,10 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D6" s="23">
         <v>5700</v>
@@ -2020,10 +2020,10 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D7" s="23">
         <v>4296.7515000000003</v>
@@ -2040,10 +2040,10 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D8" s="23">
         <v>-374.79450000000003</v>
@@ -2060,10 +2060,10 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D9" s="23">
         <v>-1028.454</v>
@@ -2080,10 +2080,10 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D10" s="23">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D11" s="23">
         <v>-414.9511</v>
@@ -2120,10 +2120,10 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D12" s="23">
         <v>-414.9511</v>
@@ -2140,10 +2140,10 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D14" s="23">
         <v>0</v>
@@ -2180,10 +2180,10 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D15" s="23">
         <v>-932.94190000000003</v>
@@ -2200,10 +2200,10 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D16" s="23">
         <v>-932.94190000000003</v>
@@ -2220,10 +2220,10 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D17" s="23">
         <v>0</v>
@@ -2240,10 +2240,10 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D18" s="23">
         <v>1800</v>
@@ -2260,10 +2260,10 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D19" s="23">
         <v>1233.79</v>
@@ -2280,10 +2280,10 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D20" s="23">
         <v>-566.21</v>
@@ -2300,10 +2300,10 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
@@ -2342,30 +2342,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2373,10 +2373,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D4" s="23">
         <v>-1371.2719999999999</v>
@@ -2413,10 +2413,10 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D5" s="23">
         <v>1371.2719999999999</v>
@@ -2433,10 +2433,10 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D6" s="23">
         <v>7600</v>
@@ -2453,10 +2453,10 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D7" s="23">
         <v>5729.0019000000002</v>
@@ -2473,10 +2473,10 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D8" s="23">
         <v>-499.72609999999997</v>
@@ -2493,10 +2493,10 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D9" s="23">
         <v>-1371.2719999999999</v>
@@ -2513,10 +2513,10 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D10" s="23">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D11" s="23">
         <v>-553.2681</v>
@@ -2553,10 +2553,10 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D12" s="23">
         <v>-553.2681</v>
@@ -2573,10 +2573,10 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
@@ -2593,10 +2593,10 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14" s="23">
         <v>0</v>
@@ -2613,10 +2613,10 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D15" s="23">
         <v>-1243.9224999999999</v>
@@ -2633,10 +2633,10 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D16" s="23">
         <v>-1243.9224999999999</v>
@@ -2653,10 +2653,10 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D17" s="23">
         <v>0</v>
@@ -2673,10 +2673,10 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D18" s="23">
         <v>2400</v>
@@ -2693,10 +2693,10 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D19" s="23">
         <v>1645.0532000000001</v>
@@ -2713,10 +2713,10 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D20" s="23">
         <v>-754.94680000000005</v>
@@ -2733,10 +2733,10 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
@@ -2774,43 +2774,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2821,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="20">
         <v>20220131</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G3" s="21">
         <v>1714.09</v>
@@ -2853,16 +2853,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="20">
         <v>20220131</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G4" s="21">
         <v>-237.9648</v>
@@ -2885,16 +2885,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="20">
         <v>20220131</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G5" s="21">
         <v>-1357.1429000000001</v>
@@ -2917,16 +2917,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6" s="20">
         <v>20220131</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G6" s="21">
         <v>-118.9824</v>
@@ -2949,16 +2949,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" s="20">
         <v>20220228</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G7" s="21">
         <v>9500</v>
@@ -2981,16 +2981,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="20">
         <v>20220228</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G8" s="21">
         <v>-1714.09</v>
@@ -3013,16 +3013,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" s="20">
         <v>20220228</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G9" s="21">
         <v>-416.43830000000003</v>
@@ -3045,16 +3045,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" s="20">
         <v>20220228</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G10" s="21">
         <v>-208.2192</v>
@@ -3077,16 +3077,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" s="20">
         <v>20220331</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G11" s="21">
         <v>-461.05680000000001</v>
@@ -3109,16 +3109,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E12" s="20">
         <v>20220331</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G12" s="21">
         <v>-230.5283</v>
@@ -3141,16 +3141,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E13" s="20">
         <v>20220430</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G13" s="21">
         <v>-482.71359999999999</v>
@@ -3173,16 +3173,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" s="20">
         <v>20220430</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G14" s="21">
         <v>-31.745999999999999</v>
@@ -3205,16 +3205,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" s="20">
         <v>20220430</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G15" s="21">
         <v>-1040.4436000000001</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E16" s="20">
         <v>20220531</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G16" s="22">
         <v>3000</v>
@@ -3269,16 +3269,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17" s="20">
         <v>20220531</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G17" s="21">
         <v>-471.8417</v>
@@ -3301,16 +3301,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E18" s="20">
         <v>20220531</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G18" s="21">
         <v>-471.8417</v>
@@ -3339,7 +3339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E433FD4-1CD7-4287-A08F-AE9EDE2DEA08}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3356,33 +3356,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -3416,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -3462,10 +3462,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -3485,10 +3485,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3577,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1">
         <v>1714.09</v>
@@ -3623,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1">
         <v>1714.09</v>
@@ -3646,10 +3646,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1">
         <v>-237.9648</v>
@@ -3669,10 +3669,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1">
         <v>-237.9648</v>
@@ -3692,10 +3692,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1">
         <v>-1357.1429000000001</v>
@@ -3715,10 +3715,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1">
         <v>-1357.1429000000001</v>
@@ -3738,10 +3738,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E18" s="1">
         <v>-118.9824</v>
@@ -3761,10 +3761,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1">
         <v>-118.9824</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E20" s="1">
         <v>9500</v>
@@ -3807,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E21" s="1">
         <v>9500</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1">
         <v>-654.40309999999999</v>
@@ -3876,10 +3876,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1">
         <v>-654.40309999999999</v>
@@ -3899,10 +3899,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E25" s="1">
         <v>-1357.1429000000001</v>
@@ -3922,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1">
         <v>-1357.1429000000001</v>
@@ -3945,10 +3945,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E27" s="1">
         <v>-327.20159999999998</v>
@@ -3968,10 +3968,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E28" s="1">
         <v>-327.20159999999998</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E29" s="1">
         <v>9500</v>
@@ -4014,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1">
         <v>9500</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -4060,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1">
         <v>-1115.4599000000001</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E33" s="1">
         <v>-1115.4599000000001</v>
@@ -4106,10 +4106,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E34" s="1">
         <v>-1357.1429000000001</v>
@@ -4129,10 +4129,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E35" s="1">
         <v>-1357.1429000000001</v>
@@ -4152,10 +4152,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1">
         <v>-557.72990000000004</v>
@@ -4175,10 +4175,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1">
         <v>-557.72990000000004</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E38" s="1">
         <v>9500</v>
@@ -4221,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E39" s="1">
         <v>9500</v>
@@ -4244,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -4267,10 +4267,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E41" s="1">
         <v>-1598.1735000000001</v>
@@ -4290,10 +4290,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E42" s="1">
         <v>-1598.1735000000001</v>
@@ -4313,10 +4313,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E43" s="1">
         <v>-1388.8888999999999</v>
@@ -4336,10 +4336,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1">
         <v>-1388.8888999999999</v>
@@ -4359,10 +4359,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E45" s="1">
         <v>-1598.1735000000001</v>
@@ -4382,10 +4382,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E46" s="1">
         <v>-1598.1735000000001</v>
@@ -4424,30 +4424,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4455,10 +4455,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D3" s="23">
         <v>-1E-4</v>
@@ -4475,10 +4475,10 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D4" s="23">
         <v>-1714.0900999999999</v>
@@ -4495,10 +4495,10 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D5" s="23">
         <v>1714.09</v>
@@ -4515,10 +4515,10 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D6" s="23">
         <v>9500</v>
@@ -4535,10 +4535,10 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D7" s="23">
         <v>7161.2524999999996</v>
@@ -4555,10 +4555,10 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D8" s="23">
         <v>-624.65750000000003</v>
@@ -4575,10 +4575,10 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D9" s="23">
         <v>-1714.09</v>
@@ -4595,10 +4595,10 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D10" s="23">
         <v>0</v>
@@ -4615,10 +4615,10 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D11" s="23">
         <v>-691.58510000000001</v>
@@ -4635,10 +4635,10 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D12" s="23">
         <v>-691.58510000000001</v>
@@ -4655,10 +4655,10 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
@@ -4675,10 +4675,10 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D14" s="23">
         <v>0</v>
@@ -4695,10 +4695,10 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D15" s="23">
         <v>-1554.9032</v>
@@ -4715,10 +4715,10 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D16" s="23">
         <v>-1554.9032</v>
@@ -4735,10 +4735,10 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D17" s="23">
         <v>0</v>
@@ -4755,10 +4755,10 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D18" s="23">
         <v>3000</v>
@@ -4775,10 +4775,10 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D19" s="23">
         <v>2056.3166000000001</v>
@@ -4795,10 +4795,10 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D20" s="23">
         <v>-943.68340000000001</v>
@@ -4815,10 +4815,10 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
@@ -4856,27 +4856,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>20220131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4935,7 +4935,7 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>-2.0000000000000001E-4</v>
@@ -4969,7 +4969,7 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>-5142.2701999999999</v>
@@ -4986,7 +4986,7 @@
         <v>20220228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>5142.2700000000004</v>
@@ -5003,7 +5003,7 @@
         <v>20220331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1">
         <v>28500</v>
@@ -5020,7 +5020,7 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1">
         <v>21483.757300000001</v>
@@ -5037,7 +5037,7 @@
         <v>20220331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>-7016.2426999999998</v>
@@ -5054,7 +5054,7 @@
         <v>20220331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -5071,7 +5071,7 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
         <v>28500</v>
@@ -5088,7 +5088,7 @@
         <v>20220430</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>19409.001799999998</v>
@@ -5105,7 +5105,7 @@
         <v>20220430</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>-9090.9982</v>
@@ -5122,7 +5122,7 @@
         <v>20220430</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>20220531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>28500</v>
@@ -5156,7 +5156,7 @@
         <v>20220531</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <v>14744.292299999999</v>
@@ -5173,7 +5173,7 @@
         <v>20220531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>-13755.707700000001</v>
@@ -5190,7 +5190,7 @@
         <v>20220531</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -5243,66 +5243,66 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -5313,37 +5313,37 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1">
         <v>202201</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -5354,34 +5354,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1">
         <v>202201</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1">
         <v>-200</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -5390,16 +5390,16 @@
         <v>-200</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5410,34 +5410,34 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1">
         <v>202201</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1">
         <v>100</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M5" s="1">
         <v>12</v>
@@ -5446,16 +5446,16 @@
         <v>1200</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="1">
         <v>2</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5466,34 +5466,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1">
         <v>202201</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1">
         <v>300</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
@@ -5502,16 +5502,16 @@
         <v>300</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="1">
         <v>3</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5522,34 +5522,34 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1">
         <v>202201</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1">
         <v>50</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M7" s="1">
         <v>12</v>
@@ -5558,16 +5558,16 @@
         <v>600</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="1">
         <v>5</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5578,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -5590,22 +5590,22 @@
         <v>202201</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5616,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -5628,19 +5628,19 @@
         <v>202201</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1">
         <v>-200</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
@@ -5649,16 +5649,16 @@
         <v>-200</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="1">
         <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5669,10 +5669,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -5681,19 +5681,19 @@
         <v>202201</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1">
         <v>100</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M10" s="1">
         <v>12</v>
@@ -5702,16 +5702,16 @@
         <v>1200</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="1">
         <v>2</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5722,10 +5722,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -5734,19 +5734,19 @@
         <v>202201</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1">
         <v>300</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
@@ -5755,16 +5755,16 @@
         <v>300</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="1">
         <v>3</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5775,10 +5775,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -5787,19 +5787,19 @@
         <v>202201</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1">
         <v>50</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M12" s="1">
         <v>24</v>
@@ -5808,16 +5808,16 @@
         <v>1200</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="1">
         <v>5</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5861,50 +5861,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="R2" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -5912,20 +5912,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="30"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N3" s="13">
         <v>0</v>
@@ -5937,7 +5937,7 @@
         <v>44620</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R3" s="15">
         <v>1900</v>
@@ -5948,18 +5948,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="L4" s="30"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N4" s="13">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>44712</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R4" s="15">
         <v>600</v>
@@ -5982,13 +5982,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -5997,13 +5997,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -6012,13 +6012,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -6027,48 +6027,48 @@
         <v>0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="A11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -6202,10 +6202,10 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="29"/>
+      <c r="A18" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="28"/>
       <c r="C18" s="17">
         <f>SUM(C13:C17)</f>
         <v>1900</v>
@@ -6226,21 +6226,21 @@
       <c r="H18" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -6424,21 +6424,21 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -6622,49 +6622,49 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
+      <c r="A55" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
     </row>
     <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="A57" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -6672,13 +6672,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E59" s="7">
         <v>0</v>
@@ -6689,13 +6689,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E60" s="7"/>
     </row>
@@ -6704,13 +6704,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E61" s="7"/>
     </row>
@@ -6719,13 +6719,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E62" s="7"/>
     </row>
@@ -6734,13 +6734,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E63" s="7"/>
     </row>
@@ -6749,48 +6749,48 @@
         <v>0</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
     <row r="67" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
+      <c r="A67" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -6924,10 +6924,10 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="29"/>
+      <c r="A74" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="28"/>
       <c r="C74" s="17">
         <f>SUM(C69:C73)</f>
         <v>2500</v>
@@ -6948,21 +6948,21 @@
       <c r="H74" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="B76" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -7146,21 +7146,21 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="B94" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
@@ -7345,11 +7345,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B38:D38"/>
@@ -7357,6 +7352,11 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A67:H67"/>
     <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7379,43 +7379,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -7426,16 +7426,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8">
         <v>342.81800000000004</v>
@@ -7458,16 +7458,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8">
         <v>-47.593000000000004</v>
@@ -7490,16 +7490,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>20220131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8">
         <v>-271.42860000000002</v>
@@ -7522,16 +7522,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>20220131</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6" s="8">
         <v>-23.796500000000002</v>
@@ -7554,16 +7554,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7">
         <v>20220228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G7" s="8">
         <v>1900</v>
@@ -7586,16 +7586,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
         <v>20220228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G8" s="8">
         <v>-342.81800000000004</v>
@@ -7618,16 +7618,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7">
         <v>20220228</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G9" s="8">
         <v>-83.287599999999998</v>
@@ -7650,16 +7650,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7">
         <v>20220228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G10" s="8">
         <v>-41.643799999999999</v>
@@ -7682,16 +7682,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
         <v>20220331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G11" s="8">
         <v>-92.211399999999998</v>
@@ -7714,16 +7714,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7">
         <v>20220331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G12" s="8">
         <v>-46.105699999999999</v>
@@ -7746,16 +7746,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7">
         <v>20220430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G13" s="8">
         <v>-96.542699999999996</v>
@@ -7778,16 +7778,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7">
         <v>20220430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G14" s="8">
         <v>-6.3491999999999997</v>
@@ -7810,16 +7810,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7">
         <v>20220430</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G15" s="8">
         <v>-208.08869999999999</v>
@@ -7842,16 +7842,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E16" s="7">
         <v>20220531</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G16" s="9">
         <v>600</v>
@@ -7874,16 +7874,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17" s="7">
         <v>20220531</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G17" s="8">
         <v>-94.368300000000005</v>
@@ -7906,16 +7906,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E18" s="7">
         <v>20220531</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G18" s="8">
         <v>-94.368300000000005</v>
@@ -7961,43 +7961,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8008,16 +8008,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G3" s="8">
         <v>685.63599999999997</v>
@@ -8040,16 +8040,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G4" s="8">
         <v>-95.185900000000004</v>
@@ -8072,16 +8072,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>20220131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G5" s="8">
         <v>-542.85709999999995</v>
@@ -8104,16 +8104,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>20220131</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G6" s="8">
         <v>-47.593000000000004</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7">
         <v>20220228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G7" s="8">
         <v>3800</v>
@@ -8168,16 +8168,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
         <v>20220228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G8" s="8">
         <v>-685.63599999999997</v>
@@ -8200,16 +8200,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7">
         <v>20220228</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G9" s="8">
         <v>-166.5754</v>
@@ -8232,16 +8232,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7">
         <v>20220228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G10" s="8">
         <v>-83.287599999999998</v>
@@ -8264,16 +8264,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
         <v>20220331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G11" s="8">
         <v>-184.42269999999999</v>
@@ -8296,16 +8296,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7">
         <v>20220331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G12" s="8">
         <v>-92.211399999999998</v>
@@ -8328,16 +8328,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7">
         <v>20220430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G13" s="8">
         <v>-193.08539999999999</v>
@@ -8360,16 +8360,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7">
         <v>20220430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G14" s="8">
         <v>-12.698499999999999</v>
@@ -8392,16 +8392,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7">
         <v>20220430</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G15" s="8">
         <v>-416.17739999999998</v>
@@ -8424,16 +8424,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E16" s="7">
         <v>20220531</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G16" s="9">
         <v>1200</v>
@@ -8456,16 +8456,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17" s="7">
         <v>20220531</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G17" s="8">
         <v>-188.73670000000001</v>
@@ -8488,16 +8488,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E18" s="7">
         <v>20220531</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G18" s="8">
         <v>-188.73670000000001</v>
@@ -8536,43 +8536,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8583,16 +8583,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="20">
         <v>20220131</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G3" s="21">
         <v>1028.454</v>
@@ -8615,16 +8615,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="20">
         <v>20220131</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G4" s="21">
         <v>-142.77889999999999</v>
@@ -8647,16 +8647,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="20">
         <v>20220131</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G5" s="21">
         <v>-814.28570000000002</v>
@@ -8679,16 +8679,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6" s="20">
         <v>20220131</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G6" s="21">
         <v>-71.389399999999995</v>
@@ -8711,16 +8711,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" s="20">
         <v>20220228</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G7" s="21">
         <v>5700</v>
@@ -8743,16 +8743,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="20">
         <v>20220228</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G8" s="21">
         <v>-1028.454</v>
@@ -8775,16 +8775,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" s="20">
         <v>20220228</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G9" s="21">
         <v>-249.863</v>
@@ -8807,16 +8807,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" s="20">
         <v>20220228</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G10" s="21">
         <v>-124.9315</v>
@@ -8839,16 +8839,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" s="20">
         <v>20220331</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G11" s="21">
         <v>-276.63400000000001</v>
@@ -8871,16 +8871,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E12" s="20">
         <v>20220331</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G12" s="21">
         <v>-138.31710000000001</v>
@@ -8903,16 +8903,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E13" s="20">
         <v>20220430</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G13" s="21">
         <v>-289.62819999999999</v>
@@ -8935,16 +8935,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" s="20">
         <v>20220430</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G14" s="21">
         <v>-19.047599999999999</v>
@@ -8967,16 +8967,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" s="20">
         <v>20220430</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G15" s="21">
         <v>-624.26610000000005</v>
@@ -8999,16 +8999,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E16" s="20">
         <v>20220531</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G16" s="22">
         <v>1800</v>
@@ -9031,16 +9031,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17" s="20">
         <v>20220531</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G17" s="21">
         <v>-283.10500000000002</v>
@@ -9063,16 +9063,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E18" s="20">
         <v>20220531</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G18" s="21">
         <v>-283.10500000000002</v>
@@ -9111,43 +9111,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -9158,16 +9158,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7">
         <v>20220131</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G3" s="8">
         <v>1371.2719999999999</v>
@@ -9190,16 +9190,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
         <v>20220131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G4" s="8">
         <v>-190.37180000000001</v>
@@ -9222,16 +9222,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>20220131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G5" s="8">
         <v>-1085.7143000000001</v>
@@ -9254,16 +9254,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>20220131</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G6" s="8">
         <v>-95.185900000000004</v>
@@ -9286,16 +9286,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7">
         <v>20220228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G7" s="8">
         <v>7600</v>
@@ -9318,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
         <v>20220228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G8" s="8">
         <v>-1371.2719999999999</v>
@@ -9350,16 +9350,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7">
         <v>20220228</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G9" s="8">
         <v>-333.15069999999997</v>
@@ -9382,16 +9382,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7">
         <v>20220228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G10" s="8">
         <v>-166.5754</v>
@@ -9414,16 +9414,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
         <v>20220331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G11" s="8">
         <v>-368.84539999999998</v>
@@ -9446,16 +9446,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7">
         <v>20220331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G12" s="8">
         <v>-184.42269999999999</v>
@@ -9478,16 +9478,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7">
         <v>20220430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G13" s="8">
         <v>-386.17090000000002</v>
@@ -9510,16 +9510,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7">
         <v>20220430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G14" s="8">
         <v>-25.396799999999999</v>
@@ -9542,16 +9542,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7">
         <v>20220430</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G15" s="8">
         <v>-832.35479999999995</v>
@@ -9574,16 +9574,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E16" s="7">
         <v>20220531</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G16" s="9">
         <v>2400</v>
@@ -9606,16 +9606,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17" s="7">
         <v>20220531</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G17" s="8">
         <v>-377.47340000000003</v>
@@ -9638,16 +9638,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E18" s="7">
         <v>20220531</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G18" s="8">
         <v>-377.47340000000003</v>
@@ -9691,33 +9691,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9728,10 +9728,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -9751,10 +9751,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -9774,10 +9774,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -9797,10 +9797,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -9820,10 +9820,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -9843,10 +9843,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -9912,10 +9912,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -9935,10 +9935,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1">
         <v>342.81799999999998</v>
@@ -9958,10 +9958,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1">
         <v>342.81799999999998</v>
@@ -9981,10 +9981,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1">
         <v>-47.593000000000004</v>
@@ -10004,10 +10004,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1">
         <v>-47.593000000000004</v>
@@ -10027,10 +10027,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1">
         <v>-271.42860000000002</v>
@@ -10050,10 +10050,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1">
         <v>-271.42860000000002</v>
@@ -10073,10 +10073,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1">
         <v>-23.796500000000002</v>
@@ -10096,10 +10096,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1">
         <v>-23.796500000000002</v>
@@ -10119,10 +10119,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1">
         <v>1900</v>
@@ -10142,10 +10142,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1">
         <v>1900</v>
@@ -10165,10 +10165,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1">
         <v>-130.88059999999999</v>
@@ -10211,10 +10211,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1">
         <v>-130.88059999999999</v>
@@ -10234,10 +10234,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1">
         <v>-271.42860000000002</v>
@@ -10257,10 +10257,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1">
         <v>-271.42860000000002</v>
@@ -10280,10 +10280,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1">
         <v>-65.440299999999993</v>
@@ -10303,10 +10303,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1">
         <v>-65.440299999999993</v>
@@ -10326,10 +10326,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1">
         <v>1900</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1">
         <v>1900</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -10395,10 +10395,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1">
         <v>-223.09200000000001</v>
@@ -10418,10 +10418,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1">
         <v>-223.09200000000001</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1">
         <v>-271.42860000000002</v>
@@ -10464,10 +10464,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1">
         <v>-271.42860000000002</v>
@@ -10487,10 +10487,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1">
         <v>-111.54600000000001</v>
@@ -10510,10 +10510,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1">
         <v>-111.54600000000001</v>
@@ -10533,10 +10533,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1">
         <v>1900</v>
@@ -10556,10 +10556,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1">
         <v>1900</v>
@@ -10579,10 +10579,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -10602,10 +10602,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1">
         <v>-319.63470000000001</v>
@@ -10625,10 +10625,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E42" s="1">
         <v>-319.63470000000001</v>
@@ -10648,10 +10648,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1">
         <v>-277.77780000000001</v>
@@ -10671,10 +10671,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1">
         <v>-277.77780000000001</v>
@@ -10694,10 +10694,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E45" s="1">
         <v>-319.63470000000001</v>
@@ -10717,10 +10717,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1">
         <v>-319.63470000000001</v>
@@ -10767,33 +10767,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10804,10 +10804,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -10827,10 +10827,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -10850,10 +10850,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -10873,10 +10873,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -10942,10 +10942,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -10965,10 +10965,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -10988,10 +10988,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1">
         <v>685.63599999999997</v>
@@ -11034,10 +11034,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1">
         <v>685.63599999999997</v>
@@ -11057,10 +11057,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1">
         <v>-95.185900000000004</v>
@@ -11080,10 +11080,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1">
         <v>-95.185900000000004</v>
@@ -11103,10 +11103,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1">
         <v>-542.85709999999995</v>
@@ -11126,10 +11126,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1">
         <v>-542.85709999999995</v>
@@ -11149,10 +11149,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E18" s="1">
         <v>-47.593000000000004</v>
@@ -11172,10 +11172,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1">
         <v>-47.593000000000004</v>
@@ -11195,10 +11195,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E20" s="1">
         <v>3800</v>
@@ -11218,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1">
         <v>3800</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -11264,10 +11264,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1">
         <v>-261.76130000000001</v>
@@ -11287,10 +11287,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1">
         <v>-261.76130000000001</v>
@@ -11310,10 +11310,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1">
         <v>-542.85709999999995</v>
@@ -11333,10 +11333,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1">
         <v>-542.85709999999995</v>
@@ -11356,10 +11356,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1">
         <v>-130.88059999999999</v>
@@ -11379,10 +11379,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1">
         <v>-130.88059999999999</v>
@@ -11402,10 +11402,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E29" s="1">
         <v>3800</v>
@@ -11425,10 +11425,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E30" s="1">
         <v>3800</v>
@@ -11448,10 +11448,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1">
         <v>-446.18400000000003</v>
@@ -11494,10 +11494,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1">
         <v>-446.18400000000003</v>
@@ -11517,10 +11517,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E34" s="1">
         <v>-542.85709999999995</v>
@@ -11540,10 +11540,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1">
         <v>-542.85709999999995</v>
@@ -11563,10 +11563,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1">
         <v>-223.09200000000001</v>
@@ -11586,10 +11586,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1">
         <v>-223.09200000000001</v>
@@ -11609,10 +11609,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1">
         <v>3800</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1">
         <v>3800</v>
@@ -11655,10 +11655,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -11678,10 +11678,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E41" s="1">
         <v>-639.26940000000002</v>
@@ -11701,10 +11701,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E42" s="1">
         <v>-639.26940000000002</v>
@@ -11724,10 +11724,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1">
         <v>-555.55560000000003</v>
@@ -11747,10 +11747,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E44" s="1">
         <v>-555.55560000000003</v>
@@ -11770,10 +11770,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E45" s="1">
         <v>-639.26940000000002</v>
@@ -11793,10 +11793,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E46" s="1">
         <v>-639.26940000000002</v>
@@ -11837,33 +11837,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11874,10 +11874,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -11897,10 +11897,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -11920,10 +11920,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -11943,10 +11943,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -11966,10 +11966,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -11989,10 +11989,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -12012,10 +12012,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -12058,10 +12058,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -12081,10 +12081,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1">
         <v>1028.454</v>
@@ -12104,10 +12104,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1">
         <v>1028.454</v>
@@ -12127,10 +12127,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1">
         <v>-142.77889999999999</v>
@@ -12150,10 +12150,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E15" s="1">
         <v>-142.77889999999999</v>
@@ -12173,10 +12173,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1">
         <v>-814.28570000000002</v>
@@ -12196,10 +12196,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E17" s="1">
         <v>-814.28570000000002</v>
@@ -12219,10 +12219,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1">
         <v>-71.389399999999995</v>
@@ -12242,10 +12242,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E19" s="1">
         <v>-71.389399999999995</v>
@@ -12265,10 +12265,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E20" s="1">
         <v>5700</v>
@@ -12288,10 +12288,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E21" s="1">
         <v>5700</v>
@@ -12311,10 +12311,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -12334,10 +12334,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1">
         <v>-392.64190000000002</v>
@@ -12357,10 +12357,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1">
         <v>-392.64190000000002</v>
@@ -12380,10 +12380,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E25" s="1">
         <v>-814.28570000000002</v>
@@ -12403,10 +12403,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1">
         <v>-814.28570000000002</v>
@@ -12426,10 +12426,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E27" s="1">
         <v>-196.32089999999999</v>
@@ -12449,10 +12449,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1">
         <v>-196.32089999999999</v>
@@ -12472,10 +12472,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E29" s="1">
         <v>5700</v>
@@ -12495,10 +12495,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E30" s="1">
         <v>5700</v>
@@ -12518,10 +12518,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -12541,10 +12541,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1">
         <v>-669.27589999999998</v>
@@ -12564,10 +12564,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1">
         <v>-669.27589999999998</v>
@@ -12587,10 +12587,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1">
         <v>-814.28570000000002</v>
@@ -12610,10 +12610,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1">
         <v>-814.28570000000002</v>
@@ -12633,10 +12633,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E36" s="1">
         <v>-334.63799999999998</v>
@@ -12656,10 +12656,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E37" s="1">
         <v>-334.63799999999998</v>
@@ -12679,10 +12679,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E38" s="1">
         <v>5700</v>
@@ -12702,10 +12702,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1">
         <v>5700</v>
@@ -12725,10 +12725,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -12748,10 +12748,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E41" s="1">
         <v>-958.90409999999997</v>
@@ -12771,10 +12771,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E42" s="1">
         <v>-958.90409999999997</v>
@@ -12794,10 +12794,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E43" s="1">
         <v>-833.33330000000001</v>
@@ -12817,10 +12817,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E44" s="1">
         <v>-833.33330000000001</v>
@@ -12840,10 +12840,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1">
         <v>-958.90409999999997</v>
@@ -12863,10 +12863,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E46" s="1">
         <v>-958.90409999999997</v>
@@ -12907,33 +12907,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12944,10 +12944,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -12967,10 +12967,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -12990,10 +12990,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -13013,10 +13013,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -13036,10 +13036,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -13059,10 +13059,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -13082,10 +13082,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -13105,10 +13105,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -13128,10 +13128,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -13151,10 +13151,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1">
         <v>1371.2719999999999</v>
@@ -13174,10 +13174,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1">
         <v>1371.2719999999999</v>
@@ -13197,10 +13197,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E14" s="1">
         <v>-190.37180000000001</v>
@@ -13220,10 +13220,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1">
         <v>-190.37180000000001</v>
@@ -13243,10 +13243,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1">
         <v>-1085.7143000000001</v>
@@ -13266,10 +13266,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1">
         <v>-1085.7143000000001</v>
@@ -13289,10 +13289,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1">
         <v>-95.185900000000004</v>
@@ -13312,10 +13312,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1">
         <v>-95.185900000000004</v>
@@ -13335,10 +13335,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E20" s="1">
         <v>7600</v>
@@ -13358,10 +13358,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E21" s="1">
         <v>7600</v>
@@ -13381,10 +13381,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -13404,10 +13404,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1">
         <v>-523.52250000000004</v>
@@ -13427,10 +13427,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1">
         <v>-523.52250000000004</v>
@@ -13450,10 +13450,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1">
         <v>-1085.7143000000001</v>
@@ -13473,10 +13473,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E26" s="1">
         <v>-1085.7143000000001</v>
@@ -13496,10 +13496,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1">
         <v>-261.76130000000001</v>
@@ -13519,10 +13519,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E28" s="1">
         <v>-261.76130000000001</v>
@@ -13542,10 +13542,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1">
         <v>7600</v>
@@ -13565,10 +13565,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E30" s="1">
         <v>7600</v>
@@ -13588,10 +13588,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -13611,10 +13611,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E32" s="1">
         <v>-892.36789999999996</v>
@@ -13634,10 +13634,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1">
         <v>-892.36789999999996</v>
@@ -13657,10 +13657,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1">
         <v>-1085.7143000000001</v>
@@ -13680,10 +13680,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1">
         <v>-1085.7143000000001</v>
@@ -13703,10 +13703,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1">
         <v>-446.18400000000003</v>
@@ -13726,10 +13726,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1">
         <v>-446.18400000000003</v>
@@ -13749,10 +13749,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E38" s="1">
         <v>7600</v>
@@ -13772,10 +13772,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1">
         <v>7600</v>
@@ -13795,10 +13795,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -13818,10 +13818,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1">
         <v>-1278.5388</v>
@@ -13841,10 +13841,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1">
         <v>-1278.5388</v>
@@ -13864,10 +13864,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1">
         <v>-1111.1111000000001</v>
@@ -13887,10 +13887,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E44" s="1">
         <v>-1111.1111000000001</v>
@@ -13910,10 +13910,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1">
         <v>-1278.5388</v>
@@ -13933,10 +13933,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E46" s="1">
         <v>-1278.5388</v>

--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestRevenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C6F7C0-AEB8-4A56-924D-CA4C710DB801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F188F7-34E0-4C56-9AE4-B2CEE13FB336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="127">
   <si>
     <t>Steps</t>
   </si>
@@ -442,6 +442,18 @@
   <si>
     <t>TestRevenue/ActivityData/ActivityData_May22.xlsx</t>
   </si>
+  <si>
+    <t>CUSTOM_TABLE_DEFINITION</t>
+  </si>
+  <si>
+    <t>TestRevenue/CustomTableDefinitions.json</t>
+  </si>
+  <si>
+    <t>UPLOAD_CUSTOM_DATA</t>
+  </si>
+  <si>
+    <t>TestRevenue/ActivityData/ActivityData_Jan22_Custom.xlsx</t>
+  </si>
 </sst>
 </file>
 
@@ -629,21 +641,21 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -911,25 +923,25 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>44592</v>
+      <c r="C7" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -940,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -951,29 +963,29 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>44620</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44651</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44620</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -984,7 +996,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="3">
-        <v>44681</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -995,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,6 +1018,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
         <v>44712</v>
       </c>
     </row>
@@ -5861,13 +5895,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5885,7 +5919,7 @@
       <c r="E2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="12" t="s">
@@ -5923,7 +5957,7 @@
       <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="7" t="s">
         <v>87</v>
       </c>
@@ -5957,7 +5991,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="L4" s="26"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="7" t="s">
         <v>87</v>
       </c>
@@ -6034,16 +6068,16 @@
       <c r="E8" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -6202,10 +6236,10 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="17">
         <f>SUM(C13:C17)</f>
         <v>1900</v>
@@ -6226,11 +6260,11 @@
       <c r="H18" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
@@ -6424,11 +6458,11 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
@@ -6622,33 +6656,33 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
     </row>
     <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -6756,16 +6790,16 @@
       <c r="E64" s="7"/>
     </row>
     <row r="67" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
     </row>
     <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
@@ -6924,10 +6958,10 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="28"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="17">
         <f>SUM(C69:C73)</f>
         <v>2500</v>
@@ -6948,11 +6982,11 @@
       <c r="H74" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="18" t="s">
@@ -7146,11 +7180,11 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
@@ -7345,6 +7379,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B38:D38"/>
@@ -7352,11 +7391,6 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A67:H67"/>
     <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestRevenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F188F7-34E0-4C56-9AE4-B2CEE13FB336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF675BC0-5121-44D9-B20E-420A3A48AE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,21 +641,21 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,7 +856,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -890,47 +890,47 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5895,13 +5895,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5919,7 +5919,7 @@
       <c r="E2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="26" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="12" t="s">
@@ -5957,7 +5957,7 @@
       <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="30"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="7" t="s">
         <v>87</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="L4" s="30"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="7" t="s">
         <v>87</v>
       </c>
@@ -6068,16 +6068,16 @@
       <c r="E8" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -6236,10 +6236,10 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="17">
         <f>SUM(C13:C17)</f>
         <v>1900</v>
@@ -6260,11 +6260,11 @@
       <c r="H18" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
@@ -6458,11 +6458,11 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
@@ -6656,33 +6656,33 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
     </row>
     <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -6790,16 +6790,16 @@
       <c r="E64" s="7"/>
     </row>
     <row r="67" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
@@ -6958,10 +6958,10 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="29"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="17">
         <f>SUM(C69:C73)</f>
         <v>2500</v>
@@ -6982,11 +6982,11 @@
       <c r="H74" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="18" t="s">
@@ -7180,11 +7180,11 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
@@ -7379,11 +7379,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B38:D38"/>
@@ -7391,6 +7386,11 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A67:H67"/>
     <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/test/resources/TestDriver/TestRevenue/Test.xlsx
+++ b/src/test/resources/TestDriver/TestRevenue/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestRevenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF675BC0-5121-44D9-B20E-420A3A48AE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F7F49-B525-4B02-9FC9-BD28CC6B5966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="12645" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -641,21 +641,21 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,7 +856,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -901,47 +901,47 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5895,13 +5895,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5919,7 +5919,7 @@
       <c r="E2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="30" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="12" t="s">
@@ -5957,7 +5957,7 @@
       <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="7" t="s">
         <v>87</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>90</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="L4" s="26"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="7" t="s">
         <v>87</v>
       </c>
@@ -6068,16 +6068,16 @@
       <c r="E8" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -6236,10 +6236,10 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="17">
         <f>SUM(C13:C17)</f>
         <v>1900</v>
@@ -6260,11 +6260,11 @@
       <c r="H18" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
@@ -6458,11 +6458,11 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
@@ -6656,33 +6656,33 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
     </row>
     <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
     </row>
     <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -6790,16 +6790,16 @@
       <c r="E64" s="7"/>
     </row>
     <row r="67" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
     </row>
     <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
@@ -6958,10 +6958,10 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="28"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="17">
         <f>SUM(C69:C73)</f>
         <v>2500</v>
@@ -6982,11 +6982,11 @@
       <c r="H74" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="18" t="s">
@@ -7180,11 +7180,11 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
@@ -7379,6 +7379,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B38:D38"/>
@@ -7386,11 +7391,6 @@
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A67:H67"/>
     <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
